--- a/datamining/final_data/sorted1990_nltk.xlsx
+++ b/datamining/final_data/sorted1990_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AMI2"/>
+  <dimension ref="A1:AKD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,14 +447,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>students</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>review</t>
@@ -462,37 +462,37 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>classrooms</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>children</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>feldhusen</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>classrooms</t>
+          <t>seeley</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>vantasselbaska</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>learners</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -502,117 +502,117 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>college</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>school</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>research</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>k</t>
+          <t>high</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>issues</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>curriculum</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>foster</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>feldhusen</t>
+          <t>silverman</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>learners</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>seeley</t>
+          <t>education</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>vantasselbaska</t>
+          <t>cabell</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>parke</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>comprehensive</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>group</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>cabell</t>
+          <t>schoolchildren</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>issues</t>
+          <t>kidder</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>berger</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>scores</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>scores</t>
+          <t>planning</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>among</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>peers</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
@@ -622,4927 +622,4642 @@
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>veenker</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>popular</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
           <t>mathematically</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>peers</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>sears</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>robert</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>tribute</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>program</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>screening</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>implications</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>henslow</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>screening</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>parke</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>program</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>programs</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>planning</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>berger</t>
-        </is>
-      </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>popular</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>comprehensive</t>
+          <t>darwin</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>butlerpor</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>kidder</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
+          <t>underachievers</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>entrants</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>articles</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>educating</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>excellence</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>unpopular</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>science</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
           <t>student</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>darwin</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>schoolchildren</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>entrants</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>articles</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>curriculum</t>
-        </is>
-      </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>foster</t>
+          <t>study</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>unpopular</t>
+          <t>placement</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>silverman</t>
+          <t>intelligence</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>w</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>lapan</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>placement</t>
+          <t>rm</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>subtests</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>teaching</t>
+          <t>meaning</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>tribute</t>
+          <t>milgram</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>sears</t>
+          <t>period</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>robert</t>
+          <t>peer</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>sb</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>subtests</t>
+          <t>rimm</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>period</t>
+          <t>learn</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>meaning</t>
+          <t>verbally</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>lapan</t>
+          <t>alternative</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>intelligence</t>
+          <t>precocious</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>measures</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>``</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>rm</t>
+          <t>''</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>milgram</t>
+          <t>disadvantaged</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>verbal</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>evaluation</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>underachievers</t>
+          <t>iq</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>butlerpor</t>
+          <t>achievement</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>schools</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>verbally</t>
+          <t>social</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>alternative</t>
+          <t>development</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>precocious</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>peer</t>
+          <t>flack</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>evaluation</t>
+          <t>inventions</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>verbal</t>
+          <t>inventing</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>iq</t>
+          <t>girls</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>''</t>
+          <t>young-people</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>``</t>
+          <t>inventors</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>jd</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>measures</t>
+          <t>ages</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>disadvantaged</t>
+          <t>calculus</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>jd</t>
+          <t>cohen</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>boys</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>veenker</t>
+          <t>strategies</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>tests</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>inventors</t>
+          <t>wheatley</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>inventions</t>
+          <t>wheatly</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>inventing</t>
+          <t>results</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>flack</t>
+          <t>mathematics</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>rejected</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>schools</t>
+          <t>eas</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>girls</t>
+          <t>child</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>boys</t>
+          <t>groups</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>strategies</t>
+          <t>states</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>educating</t>
+          <t>females</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>excellence</t>
+          <t>nature</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>mathematics</t>
+          <t>males</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>tests</t>
+          <t>problems</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>results</t>
+          <t>predictors</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>females</t>
+          <t>status</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>nature</t>
+          <t>adolescents</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>states</t>
+          <t>metacognitive</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>males</t>
+          <t>identified</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>eas</t>
+          <t>test</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>predictors</t>
+          <t>wisc-r</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>rejected</t>
+          <t>well</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>schiever</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>metacognitive</t>
+          <t>defensible</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>wisc-r</t>
+          <t>less</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>adolescents</t>
+          <t>sw</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>cultural</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>ethnic-minorities</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>problems</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>age</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>sb</t>
+          <t>cj</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>concerns</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>identified</t>
+          <t>profiles</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>learn</t>
+          <t>lewis</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>m.</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>rimm</t>
+          <t>terman</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>will</t>
+          <t>nonverbal</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>ethnic-minorities</t>
+          <t>practical</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>defensible</t>
+          <t>potentially</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>cultural</t>
+          <t>directory</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>cj</t>
+          <t>dwe</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>opportunities</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>schiever</t>
+          <t>publishing</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>higher</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>less</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>profiles</t>
+          <t>achievers</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>by</t>
+          <t>holistic</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>nonverbal</t>
+          <t>early</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>higher</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>potentially</t>
+          <t>variables</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>practical</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>directory</t>
+          <t>applied-psychology</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>variables</t>
+          <t>factors</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>sorters</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>dwe</t>
+          <t>points</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>opportunities</t>
+          <t>areas</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>concerns</t>
+          <t>pd</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>significant</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>publishing</t>
+          <t>intelligence-testing</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
+          <t>frequently</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>chapman</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>cited</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>1890-1930</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
           <t>extremely</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
-        <is>
-          <t>significant</t>
-        </is>
-      </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>processing</t>
-        </is>
-      </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>factors</t>
-        </is>
-      </c>
-      <c r="FQ1" s="1" t="inlineStr">
-        <is>
-          <t>terman</t>
-        </is>
-      </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>lewis</t>
+          <t>special</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>m.</t>
+          <t>previous</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>determine</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>achievers</t>
+          <t>found</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>frequently</t>
+          <t>discrepancies</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>cited</t>
+          <t>jh</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>holistic</t>
+          <t>new</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
+          <t>giese</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
           <t>cothron</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>competitions</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>rj</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>rn</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>teachers</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>bonus</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>modestly</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>rezba</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>discrepancy</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>two</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
-        <is>
-          <t>giese</t>
-        </is>
-      </c>
-      <c r="GD1" s="1" t="inlineStr">
-        <is>
-          <t>jh</t>
-        </is>
-      </c>
-      <c r="GE1" s="1" t="inlineStr">
-        <is>
-          <t>points</t>
-        </is>
-      </c>
-      <c r="GF1" s="1" t="inlineStr">
-        <is>
-          <t>rezba</t>
-        </is>
-      </c>
-      <c r="GG1" s="1" t="inlineStr">
-        <is>
-          <t>rj</t>
-        </is>
-      </c>
-      <c r="GH1" s="1" t="inlineStr">
-        <is>
-          <t>previous</t>
-        </is>
-      </c>
-      <c r="GI1" s="1" t="inlineStr">
-        <is>
-          <t>parents</t>
-        </is>
-      </c>
-      <c r="GJ1" s="1" t="inlineStr">
-        <is>
-          <t>wheatley</t>
-        </is>
-      </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>areas</t>
+          <t>academic</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>discrepancies</t>
+          <t>described</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>discrepancy</t>
+          <t>used</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>wheatly</t>
+          <t>preschool</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>gifted-children</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>determine</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>extent</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>described</t>
+          <t>nurture</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>either</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>ages</t>
+          <t>years</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>bonus</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>young-people</t>
+          <t>guba</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>philosophy</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>1890-1930</t>
+          <t>talents</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>applied-psychology</t>
+          <t>smutny</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>gifted-child</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>develop</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>calculus</t>
+          <t>birth</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>academic</t>
+          <t>although</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>intelligence-testing</t>
+          <t>postpositivist</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>recognize</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>cohen</t>
+          <t>inquiry</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>pd</t>
+          <t>lincoln</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>sorters</t>
+          <t>personality</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>chapman</t>
+          <t>average</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>modestly</t>
+          <t>sra</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>found</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>ld</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>preschool</t>
+          <t>low</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>extent</t>
+          <t>series</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>used</t>
+          <t>investigated</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>hypothetical</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>either</t>
+          <t>compared</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>article</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>gifted-children</t>
+          <t>three</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>rated</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>although</t>
+          <t>interpretation</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>nurture</t>
+          <t>v-p</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>philosophy</t>
+          <t>indicated</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>postpositivist</t>
+          <t>may</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>several</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>lincoln</t>
+          <t>traits</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>paper</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>studies</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>inquiry</t>
+          <t>and/or</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>guba</t>
+          <t>charles</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>future</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>sra</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>top</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>series</t>
+          <t>i.e.</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>preschoolers</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>personality</t>
+          <t>sgcp</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>one</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>hypothetical</t>
+          <t>vygotskian</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>ld</t>
+          <t>assessment</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>indicated</t>
+          <t>standard</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>relationships</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>description</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>charles</t>
+          <t>descriptions</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>relations</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>v-p</t>
+          <t>centers</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>paper</t>
+          <t>university</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>traits</t>
+          <t>factor</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>academically</t>
+          <t>center</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>compared</t>
+          <t>93</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>and/or</t>
+          <t>largely</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>interpretation</t>
+          <t>mentorship</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>standard</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>differences</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>john</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>time</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>investigated</t>
+          <t>upon</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>several</t>
+          <t>purpose</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>future</t>
+          <t>perform</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>sgcp</t>
+          <t>require</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>i.e.</t>
+          <t>given</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>requiring</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>vygotskian</t>
+          <t>public</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>preschoolers</t>
+          <t>process</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>rated</t>
+          <t>tasks</t>
         </is>
       </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>relationships</t>
+          <t>family</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>steps</t>
         </is>
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
-          <t>relations</t>
+          <t>system</t>
         </is>
       </c>
       <c r="JQ1" s="1" t="inlineStr">
         <is>
-          <t>centers</t>
+          <t>coursework</t>
         </is>
       </c>
       <c r="JR1" s="1" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="JS1" s="1" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>underachieving</t>
         </is>
       </c>
       <c r="JT1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>activities</t>
         </is>
       </c>
       <c r="JU1" s="1" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>enrolled</t>
         </is>
       </c>
       <c r="JV1" s="1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>also</t>
         </is>
       </c>
       <c r="JW1" s="1" t="inlineStr">
         <is>
-          <t>descriptions</t>
+          <t>contributions</t>
         </is>
       </c>
       <c r="JX1" s="1" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>suggest</t>
         </is>
       </c>
       <c r="JY1" s="1" t="inlineStr">
         <is>
-          <t>upon</t>
+          <t>percentage</t>
         </is>
       </c>
       <c r="JZ1" s="1" t="inlineStr">
         <is>
-          <t>factor</t>
+          <t>parental</t>
         </is>
       </c>
       <c r="KA1" s="1" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>high-scoring</t>
         </is>
       </c>
       <c r="KB1" s="1" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>training</t>
         </is>
       </c>
       <c r="KC1" s="1" t="inlineStr">
         <is>
-          <t>coursework</t>
+          <t>successful</t>
         </is>
       </c>
       <c r="KD1" s="1" t="inlineStr">
         <is>
-          <t>smutny</t>
+          <t>initiation</t>
         </is>
       </c>
       <c r="KE1" s="1" t="inlineStr">
         <is>
-          <t>given</t>
+          <t>young</t>
         </is>
       </c>
       <c r="KF1" s="1" t="inlineStr">
         <is>
-          <t>perform</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="KG1" s="1" t="inlineStr">
         <is>
-          <t>talents</t>
+          <t>treatment</t>
         </is>
       </c>
       <c r="KH1" s="1" t="inlineStr">
         <is>
-          <t>recognize</t>
+          <t>investigation</t>
         </is>
       </c>
       <c r="KI1" s="1" t="inlineStr">
         <is>
-          <t>gifted-child</t>
+          <t>120</t>
         </is>
       </c>
       <c r="KJ1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>investigations</t>
         </is>
       </c>
       <c r="KK1" s="1" t="inlineStr">
         <is>
-          <t>develop</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
-          <t>birth</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
-          <t>differences</t>
+          <t>25</t>
         </is>
       </c>
       <c r="KN1" s="1" t="inlineStr">
         <is>
-          <t>mentorship</t>
+          <t>century</t>
         </is>
       </c>
       <c r="KO1" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="KP1" s="1" t="inlineStr">
         <is>
-          <t>requiring</t>
+          <t>important</t>
         </is>
       </c>
       <c r="KQ1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>showed</t>
         </is>
       </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
-          <t>john</t>
+          <t>term</t>
         </is>
       </c>
       <c r="KS1" s="1" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>outcomes</t>
         </is>
       </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>underachieving</t>
+          <t>predictive</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>steps</t>
+          <t>led</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>favored</t>
         </is>
       </c>
       <c r="KW1" s="1" t="inlineStr">
         <is>
-          <t>tasks</t>
+          <t>report</t>
         </is>
       </c>
       <c r="KX1" s="1" t="inlineStr">
         <is>
-          <t>largely</t>
+          <t>controversies</t>
         </is>
       </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
-          <t>require</t>
+          <t>general</t>
         </is>
       </c>
       <c r="KZ1" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>territories</t>
         </is>
       </c>
       <c r="LA1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>utilized</t>
         </is>
       </c>
       <c r="LB1" s="1" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>definitional</t>
         </is>
       </c>
       <c r="LC1" s="1" t="inlineStr">
         <is>
-          <t>purpose</t>
+          <t>field</t>
         </is>
       </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>parental</t>
+          <t>axioms</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
         <is>
-          <t>activities</t>
+          <t>spatial</t>
         </is>
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
-          <t>high-scoring</t>
+          <t>philosophical</t>
         </is>
       </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>initiation</t>
+          <t>funding</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>abilities</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>investigation</t>
+          <t>paradigm</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>investigations</t>
+          <t>identify</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>assigned</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>follow</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>greater</t>
         </is>
       </c>
       <c r="LN1" s="1" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="LO1" s="1" t="inlineStr">
         <is>
-          <t>successful</t>
+          <t>identifying</t>
         </is>
       </c>
       <c r="LP1" s="1" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>styles</t>
         </is>
       </c>
       <c r="LQ1" s="1" t="inlineStr">
         <is>
-          <t>territories</t>
+          <t>pearson</t>
         </is>
       </c>
       <c r="LR1" s="1" t="inlineStr">
         <is>
-          <t>predictive</t>
+          <t>solving</t>
         </is>
       </c>
       <c r="LS1" s="1" t="inlineStr">
         <is>
-          <t>showed</t>
+          <t>role</t>
         </is>
       </c>
       <c r="LT1" s="1" t="inlineStr">
         <is>
-          <t>utilized</t>
+          <t>categories</t>
         </is>
       </c>
       <c r="LU1" s="1" t="inlineStr">
         <is>
-          <t>identify</t>
+          <t>socioeconomic</t>
         </is>
       </c>
       <c r="LV1" s="1" t="inlineStr">
         <is>
-          <t>favored</t>
+          <t>related</t>
         </is>
       </c>
       <c r="LW1" s="1" t="inlineStr">
         <is>
-          <t>suggest</t>
+          <t>developed</t>
         </is>
       </c>
       <c r="LX1" s="1" t="inlineStr">
         <is>
-          <t>contributions</t>
+          <t>value</t>
         </is>
       </c>
       <c r="LY1" s="1" t="inlineStr">
         <is>
-          <t>funding</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="LZ1" s="1" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>least</t>
         </is>
       </c>
       <c r="MA1" s="1" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>reasoning</t>
         </is>
       </c>
       <c r="MB1" s="1" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>advanced</t>
         </is>
       </c>
       <c r="MC1" s="1" t="inlineStr">
         <is>
-          <t>between</t>
+          <t>particularly</t>
         </is>
       </c>
       <c r="MD1" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>scored</t>
         </is>
       </c>
       <c r="ME1" s="1" t="inlineStr">
         <is>
-          <t>outcomes</t>
+          <t>designed</t>
         </is>
       </c>
       <c r="MF1" s="1" t="inlineStr">
         <is>
-          <t>led</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="MG1" s="1" t="inlineStr">
         <is>
-          <t>philosophical</t>
+          <t>eight</t>
         </is>
       </c>
       <c r="MH1" s="1" t="inlineStr">
         <is>
-          <t>controversies</t>
+          <t>accounted</t>
         </is>
       </c>
       <c r="MI1" s="1" t="inlineStr">
         <is>
-          <t>important</t>
+          <t>credits</t>
         </is>
       </c>
       <c r="MJ1" s="1" t="inlineStr">
         <is>
-          <t>century</t>
+          <t>function</t>
         </is>
       </c>
       <c r="MK1" s="1" t="inlineStr">
         <is>
-          <t>definitional</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="ML1" s="1" t="inlineStr">
         <is>
-          <t>term</t>
+          <t>rarity</t>
         </is>
       </c>
       <c r="MM1" s="1" t="inlineStr">
         <is>
-          <t>pearson</t>
+          <t>verbal-performance</t>
         </is>
       </c>
       <c r="MN1" s="1" t="inlineStr">
         <is>
-          <t>abilities</t>
+          <t>subtest</t>
         </is>
       </c>
       <c r="MO1" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>omission</t>
         </is>
       </c>
       <c r="MP1" s="1" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>different</t>
         </is>
       </c>
       <c r="MQ1" s="1" t="inlineStr">
         <is>
-          <t>percentage</t>
+          <t>substitution</t>
         </is>
       </c>
       <c r="MR1" s="1" t="inlineStr">
         <is>
-          <t>solving</t>
+          <t>tables</t>
         </is>
       </c>
       <c r="MS1" s="1" t="inlineStr">
         <is>
-          <t>spatial</t>
+          <t>level</t>
         </is>
       </c>
       <c r="MT1" s="1" t="inlineStr">
         <is>
-          <t>axioms</t>
+          <t>content</t>
         </is>
       </c>
       <c r="MU1" s="1" t="inlineStr">
         <is>
-          <t>enrolled</t>
+          <t>ascertain</t>
         </is>
       </c>
       <c r="MV1" s="1" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>using</t>
         </is>
       </c>
       <c r="MW1" s="1" t="inlineStr">
         <is>
-          <t>styles</t>
+          <t>preferences</t>
         </is>
       </c>
       <c r="MX1" s="1" t="inlineStr">
         <is>
-          <t>socioeconomic</t>
+          <t>selective</t>
         </is>
       </c>
       <c r="MY1" s="1" t="inlineStr">
         <is>
-          <t>related</t>
+          <t>resolve</t>
         </is>
       </c>
       <c r="MZ1" s="1" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>examined</t>
         </is>
       </c>
       <c r="NA1" s="1" t="inlineStr">
         <is>
-          <t>follow</t>
+          <t>toward</t>
         </is>
       </c>
       <c r="NB1" s="1" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>predictor</t>
         </is>
       </c>
       <c r="NC1" s="1" t="inlineStr">
         <is>
-          <t>greater</t>
+          <t>investigate</t>
         </is>
       </c>
       <c r="ND1" s="1" t="inlineStr">
         <is>
-          <t>paradigm</t>
+          <t>patterns</t>
         </is>
       </c>
       <c r="NE1" s="1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>classes</t>
         </is>
       </c>
       <c r="NF1" s="1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>predicting</t>
         </is>
       </c>
       <c r="NG1" s="1" t="inlineStr">
         <is>
-          <t>developed</t>
+          <t>aptitude</t>
         </is>
       </c>
       <c r="NH1" s="1" t="inlineStr">
         <is>
-          <t>advanced</t>
+          <t>purposes</t>
         </is>
       </c>
       <c r="NI1" s="1" t="inlineStr">
         <is>
-          <t>credits</t>
+          <t>roles</t>
         </is>
       </c>
       <c r="NJ1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>processes</t>
         </is>
       </c>
       <c r="NK1" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>manner</t>
         </is>
       </c>
       <c r="NL1" s="1" t="inlineStr">
         <is>
-          <t>scored</t>
+          <t>self</t>
         </is>
       </c>
       <c r="NM1" s="1" t="inlineStr">
         <is>
-          <t>reasoning</t>
+          <t>overlooked</t>
         </is>
       </c>
       <c r="NN1" s="1" t="inlineStr">
         <is>
-          <t>assigned</t>
+          <t>problem-solving</t>
         </is>
       </c>
       <c r="NO1" s="1" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>cognitive</t>
         </is>
       </c>
       <c r="NP1" s="1" t="inlineStr">
         <is>
-          <t>categories</t>
+          <t>score</t>
         </is>
       </c>
       <c r="NQ1" s="1" t="inlineStr">
         <is>
-          <t>accounted</t>
+          <t>success</t>
         </is>
       </c>
       <c r="NR1" s="1" t="inlineStr">
         <is>
-          <t>particularly</t>
+          <t>summarizes</t>
         </is>
       </c>
       <c r="NS1" s="1" t="inlineStr">
         <is>
-          <t>least</t>
+          <t>sibling</t>
         </is>
       </c>
       <c r="NT1" s="1" t="inlineStr">
         <is>
-          <t>omission</t>
+          <t>whatever</t>
         </is>
       </c>
       <c r="NU1" s="1" t="inlineStr">
         <is>
-          <t>rarity</t>
+          <t>six</t>
         </is>
       </c>
       <c r="NV1" s="1" t="inlineStr">
         <is>
-          <t>verbal-performance</t>
+          <t>sugggestions</t>
         </is>
       </c>
       <c r="NW1" s="1" t="inlineStr">
         <is>
-          <t>different</t>
+          <t>regarding</t>
         </is>
       </c>
       <c r="NX1" s="1" t="inlineStr">
         <is>
-          <t>tables</t>
+          <t>overview</t>
         </is>
       </c>
       <c r="NY1" s="1" t="inlineStr">
         <is>
-          <t>subtest</t>
+          <t>focus</t>
         </is>
       </c>
       <c r="NZ1" s="1" t="inlineStr">
         <is>
-          <t>substitution</t>
+          <t>home</t>
         </is>
       </c>
       <c r="OA1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>defined</t>
         </is>
       </c>
       <c r="OB1" s="1" t="inlineStr">
         <is>
-          <t>aptitude</t>
+          <t>adaptations</t>
         </is>
       </c>
       <c r="OC1" s="1" t="inlineStr">
         <is>
-          <t>resolve</t>
+          <t>community</t>
         </is>
       </c>
       <c r="OD1" s="1" t="inlineStr">
         <is>
-          <t>preferences</t>
+          <t>centered</t>
         </is>
       </c>
       <c r="OE1" s="1" t="inlineStr">
         <is>
-          <t>designed</t>
+          <t>g/t</t>
         </is>
       </c>
       <c r="OF1" s="1" t="inlineStr">
         <is>
-          <t>purposes</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="OG1" s="1" t="inlineStr">
         <is>
-          <t>most</t>
+          <t>80s</t>
         </is>
       </c>
       <c r="OH1" s="1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>1970s</t>
         </is>
       </c>
       <c r="OI1" s="1" t="inlineStr">
         <is>
-          <t>predicting</t>
+          <t>counseling</t>
         </is>
       </c>
       <c r="OJ1" s="1" t="inlineStr">
         <is>
-          <t>function</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="OK1" s="1" t="inlineStr">
         <is>
-          <t>eight</t>
+          <t>offered</t>
         </is>
       </c>
       <c r="OL1" s="1" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>types</t>
         </is>
       </c>
       <c r="OM1" s="1" t="inlineStr">
         <is>
-          <t>ascertain</t>
+          <t>efforts</t>
         </is>
       </c>
       <c r="ON1" s="1" t="inlineStr">
         <is>
-          <t>classes</t>
+          <t>framework</t>
         </is>
       </c>
       <c r="OO1" s="1" t="inlineStr">
         <is>
-          <t>predictor</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="OP1" s="1" t="inlineStr">
         <is>
-          <t>patterns</t>
+          <t>highlighted</t>
         </is>
       </c>
       <c r="OQ1" s="1" t="inlineStr">
         <is>
-          <t>selective</t>
+          <t>key</t>
         </is>
       </c>
       <c r="OR1" s="1" t="inlineStr">
         <is>
+          <t>neighborhood</t>
+        </is>
+      </c>
+      <c r="OS1" s="1" t="inlineStr">
+        <is>
+          <t>critiques</t>
+        </is>
+      </c>
+      <c r="OT1" s="1" t="inlineStr">
+        <is>
+          <t>attributions</t>
+        </is>
+      </c>
+      <c r="OU1" s="1" t="inlineStr">
+        <is>
+          <t>empirical-research</t>
+        </is>
+      </c>
+      <c r="OV1" s="1" t="inlineStr">
+        <is>
+          <t>especially</t>
+        </is>
+      </c>
+      <c r="OW1" s="1" t="inlineStr">
+        <is>
+          <t>environments</t>
+        </is>
+      </c>
+      <c r="OX1" s="1" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="OY1" s="1" t="inlineStr">
+        <is>
+          <t>provides</t>
+        </is>
+      </c>
+      <c r="OZ1" s="1" t="inlineStr">
+        <is>
           <t>ratings</t>
         </is>
       </c>
-      <c r="OS1" s="1" t="inlineStr">
+      <c r="PA1" s="1" t="inlineStr">
         <is>
           <t>perceptions</t>
         </is>
       </c>
-      <c r="OT1" s="1" t="inlineStr">
-        <is>
-          <t>offered</t>
-        </is>
-      </c>
-      <c r="OU1" s="1" t="inlineStr">
-        <is>
-          <t>risk</t>
-        </is>
-      </c>
-      <c r="OV1" s="1" t="inlineStr">
-        <is>
-          <t>especially</t>
-        </is>
-      </c>
-      <c r="OW1" s="1" t="inlineStr">
+      <c r="PB1" s="1" t="inlineStr">
+        <is>
+          <t>empirical</t>
+        </is>
+      </c>
+      <c r="PC1" s="1" t="inlineStr">
         <is>
           <t>acceptance</t>
         </is>
       </c>
-      <c r="OX1" s="1" t="inlineStr">
-        <is>
-          <t>regarding</t>
-        </is>
-      </c>
-      <c r="OY1" s="1" t="inlineStr">
-        <is>
-          <t>sugggestions</t>
-        </is>
-      </c>
-      <c r="OZ1" s="1" t="inlineStr">
-        <is>
-          <t>examined</t>
-        </is>
-      </c>
-      <c r="PA1" s="1" t="inlineStr">
-        <is>
-          <t>types</t>
-        </is>
-      </c>
-      <c r="PB1" s="1" t="inlineStr">
-        <is>
-          <t>six</t>
-        </is>
-      </c>
-      <c r="PC1" s="1" t="inlineStr">
-        <is>
-          <t>sibling</t>
-        </is>
-      </c>
       <c r="PD1" s="1" t="inlineStr">
         <is>
-          <t>self</t>
+          <t>discussed</t>
         </is>
       </c>
       <c r="PE1" s="1" t="inlineStr">
         <is>
-          <t>roles</t>
+          <t>associated</t>
         </is>
       </c>
       <c r="PF1" s="1" t="inlineStr">
         <is>
-          <t>provides</t>
+          <t>analyses</t>
         </is>
       </c>
       <c r="PG1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="PH1" s="1" t="inlineStr">
         <is>
-          <t>neighborhood</t>
+          <t>evolution</t>
         </is>
       </c>
       <c r="PI1" s="1" t="inlineStr">
         <is>
-          <t>key</t>
+          <t>class</t>
         </is>
       </c>
       <c r="PJ1" s="1" t="inlineStr">
         <is>
-          <t>highlighted</t>
+          <t>terms</t>
         </is>
       </c>
       <c r="PK1" s="1" t="inlineStr">
         <is>
-          <t>framework</t>
+          <t>background</t>
         </is>
       </c>
       <c r="PL1" s="1" t="inlineStr">
         <is>
-          <t>cognitive</t>
+          <t>sociometric</t>
         </is>
       </c>
       <c r="PM1" s="1" t="inlineStr">
         <is>
-          <t>efforts</t>
+          <t>participation</t>
         </is>
       </c>
       <c r="PN1" s="1" t="inlineStr">
         <is>
-          <t>counseling</t>
+          <t>case</t>
         </is>
       </c>
       <c r="PO1" s="1" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>willingness</t>
         </is>
       </c>
       <c r="PP1" s="1" t="inlineStr">
         <is>
-          <t>community</t>
+          <t>social-status</t>
         </is>
       </c>
       <c r="PQ1" s="1" t="inlineStr">
         <is>
-          <t>adaptations</t>
+          <t>vignettes</t>
         </is>
       </c>
       <c r="PR1" s="1" t="inlineStr">
         <is>
-          <t>investigate</t>
+          <t>middle</t>
         </is>
       </c>
       <c r="PS1" s="1" t="inlineStr">
         <is>
-          <t>overview</t>
+          <t>descriptive</t>
         </is>
       </c>
       <c r="PT1" s="1" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>vignette</t>
         </is>
       </c>
       <c r="PU1" s="1" t="inlineStr">
         <is>
-          <t>toward</t>
+          <t>labeled</t>
         </is>
       </c>
       <c r="PV1" s="1" t="inlineStr">
         <is>
-          <t>discussed</t>
+          <t>ninety-seven</t>
         </is>
       </c>
       <c r="PW1" s="1" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>nonhandicapped</t>
         </is>
       </c>
       <c r="PX1" s="1" t="inlineStr">
         <is>
-          <t>associated</t>
+          <t>label</t>
         </is>
       </c>
       <c r="PY1" s="1" t="inlineStr">
         <is>
-          <t>analyses</t>
+          <t>possible</t>
         </is>
       </c>
       <c r="PZ1" s="1" t="inlineStr">
         <is>
-          <t>evolution</t>
+          <t>tended</t>
         </is>
       </c>
       <c r="QA1" s="1" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>presence</t>
         </is>
       </c>
       <c r="QB1" s="1" t="inlineStr">
         <is>
-          <t>1970s</t>
+          <t>influenced</t>
         </is>
       </c>
       <c r="QC1" s="1" t="inlineStr">
         <is>
-          <t>80s</t>
+          <t>read</t>
         </is>
       </c>
       <c r="QD1" s="1" t="inlineStr">
         <is>
-          <t>attributions</t>
+          <t>reading</t>
         </is>
       </c>
       <c r="QE1" s="1" t="inlineStr">
         <is>
-          <t>centered</t>
+          <t>hundred</t>
         </is>
       </c>
       <c r="QF1" s="1" t="inlineStr">
         <is>
-          <t>critiques</t>
+          <t>refer</t>
         </is>
       </c>
       <c r="QG1" s="1" t="inlineStr">
         <is>
-          <t>defined</t>
+          <t>significantly</t>
         </is>
       </c>
       <c r="QH1" s="1" t="inlineStr">
         <is>
-          <t>overlooked</t>
+          <t>evaluations</t>
         </is>
       </c>
       <c r="QI1" s="1" t="inlineStr">
         <is>
-          <t>empirical-research</t>
+          <t>disabled</t>
         </is>
       </c>
       <c r="QJ1" s="1" t="inlineStr">
         <is>
-          <t>environments</t>
+          <t>subjects</t>
         </is>
       </c>
       <c r="QK1" s="1" t="inlineStr">
         <is>
-          <t>focus</t>
+          <t>same-aged</t>
         </is>
       </c>
       <c r="QL1" s="1" t="inlineStr">
         <is>
-          <t>g/t</t>
+          <t>classmates</t>
         </is>
       </c>
       <c r="QM1" s="1" t="inlineStr">
         <is>
-          <t>home</t>
+          <t>corrected</t>
         </is>
       </c>
       <c r="QN1" s="1" t="inlineStr">
         <is>
-          <t>manner</t>
+          <t>28</t>
         </is>
       </c>
       <c r="QO1" s="1" t="inlineStr">
         <is>
-          <t>problem-solving</t>
+          <t>appear</t>
         </is>
       </c>
       <c r="QP1" s="1" t="inlineStr">
         <is>
-          <t>whatever</t>
+          <t>battery</t>
         </is>
       </c>
       <c r="QQ1" s="1" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>correlations</t>
         </is>
       </c>
       <c r="QR1" s="1" t="inlineStr">
         <is>
-          <t>summarizes</t>
+          <t>design</t>
         </is>
       </c>
       <c r="QS1" s="1" t="inlineStr">
         <is>
-          <t>processes</t>
+          <t>fifty</t>
         </is>
       </c>
       <c r="QT1" s="1" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>iv</t>
         </is>
       </c>
       <c r="QU1" s="1" t="inlineStr">
         <is>
-          <t>empirical</t>
+          <t>product-moment</t>
         </is>
       </c>
       <c r="QV1" s="1" t="inlineStr">
         <is>
-          <t>score</t>
+          <t>range</t>
         </is>
       </c>
       <c r="QW1" s="1" t="inlineStr">
         <is>
-          <t>participation</t>
+          <t>restriction</t>
         </is>
       </c>
       <c r="QX1" s="1" t="inlineStr">
         <is>
-          <t>significantly</t>
+          <t>screen</t>
         </is>
       </c>
       <c r="QY1" s="1" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>serve</t>
         </is>
       </c>
       <c r="QZ1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>stanford-binet</t>
         </is>
       </c>
       <c r="RA1" s="1" t="inlineStr">
         <is>
-          <t>tended</t>
+          <t>stanford-binet-iv</t>
         </is>
       </c>
       <c r="RB1" s="1" t="inlineStr">
         <is>
-          <t>descriptive</t>
+          <t>statistically</t>
         </is>
       </c>
       <c r="RC1" s="1" t="inlineStr">
         <is>
-          <t>disabled</t>
+          <t>pupils</t>
         </is>
       </c>
       <c r="RD1" s="1" t="inlineStr">
         <is>
-          <t>willingness</t>
+          <t>sufficiently</t>
         </is>
       </c>
       <c r="RE1" s="1" t="inlineStr">
         <is>
-          <t>evaluations</t>
+          <t>tested</t>
         </is>
       </c>
       <c r="RF1" s="1" t="inlineStr">
         <is>
-          <t>vignettes</t>
+          <t>adequately</t>
         </is>
       </c>
       <c r="RG1" s="1" t="inlineStr">
         <is>
-          <t>vignette</t>
+          <t>viability</t>
         </is>
       </c>
       <c r="RH1" s="1" t="inlineStr">
         <is>
-          <t>hundred</t>
+          <t>pull-out</t>
         </is>
       </c>
       <c r="RI1" s="1" t="inlineStr">
         <is>
-          <t>subjects</t>
+          <t>nomination</t>
         </is>
       </c>
       <c r="RJ1" s="1" t="inlineStr">
         <is>
-          <t>influenced</t>
+          <t>neglected</t>
         </is>
       </c>
       <c r="RK1" s="1" t="inlineStr">
         <is>
-          <t>background</t>
+          <t>assessing</t>
         </is>
       </c>
       <c r="RL1" s="1" t="inlineStr">
         <is>
-          <t>refer</t>
+          <t>instrument</t>
         </is>
       </c>
       <c r="RM1" s="1" t="inlineStr">
         <is>
-          <t>presence</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="RN1" s="1" t="inlineStr">
         <is>
+          <t>analyzed</t>
+        </is>
+      </c>
+      <c r="RO1" s="1" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="RO1" s="1" t="inlineStr">
-        <is>
-          <t>middle</t>
-        </is>
-      </c>
       <c r="RP1" s="1" t="inlineStr">
         <is>
-          <t>ninety-seven</t>
+          <t>namely</t>
         </is>
       </c>
       <c r="RQ1" s="1" t="inlineStr">
         <is>
-          <t>nonhandicapped</t>
+          <t>13-18-year-old</t>
         </is>
       </c>
       <c r="RR1" s="1" t="inlineStr">
         <is>
-          <t>label</t>
+          <t>50-58</t>
         </is>
       </c>
       <c r="RS1" s="1" t="inlineStr">
         <is>
-          <t>possible</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="RT1" s="1" t="inlineStr">
         <is>
-          <t>labeled</t>
+          <t>contrasted</t>
         </is>
       </c>
       <c r="RU1" s="1" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>adults</t>
         </is>
       </c>
       <c r="RV1" s="1" t="inlineStr">
         <is>
-          <t>reading</t>
+          <t>thus</t>
         </is>
       </c>
       <c r="RW1" s="1" t="inlineStr">
         <is>
+          <t>wisc-r.</t>
+        </is>
+      </c>
+      <c r="RX1" s="1" t="inlineStr">
+        <is>
+          <t>characterizes</t>
+        </is>
+      </c>
+      <c r="RY1" s="1" t="inlineStr">
+        <is>
+          <t>collaboration</t>
+        </is>
+      </c>
+      <c r="RZ1" s="1" t="inlineStr">
+        <is>
+          <t>concepts</t>
+        </is>
+      </c>
+      <c r="SA1" s="1" t="inlineStr">
+        <is>
+          <t>contexts</t>
+        </is>
+      </c>
+      <c r="SB1" s="1" t="inlineStr">
+        <is>
+          <t>findings</t>
+        </is>
+      </c>
+      <c r="SC1" s="1" t="inlineStr">
+        <is>
+          <t>africans</t>
+        </is>
+      </c>
+      <c r="SD1" s="1" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="SE1" s="1" t="inlineStr">
+        <is>
+          <t>emerged</t>
+        </is>
+      </c>
+      <c r="SF1" s="1" t="inlineStr">
+        <is>
+          <t>organiser</t>
+        </is>
+      </c>
+      <c r="SG1" s="1" t="inlineStr">
+        <is>
           <t>intercorrelated</t>
         </is>
       </c>
-      <c r="RX1" s="1" t="inlineStr">
+      <c r="SH1" s="1" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="SI1" s="1" t="inlineStr">
+        <is>
+          <t>relative</t>
+        </is>
+      </c>
+      <c r="SJ1" s="1" t="inlineStr">
+        <is>
+          <t>followed</t>
+        </is>
+      </c>
+      <c r="SK1" s="1" t="inlineStr">
+        <is>
+          <t>enrichment</t>
+        </is>
+      </c>
+      <c r="SL1" s="1" t="inlineStr">
+        <is>
+          <t>selecting</t>
+        </is>
+      </c>
+      <c r="SM1" s="1" t="inlineStr">
+        <is>
+          <t>controlled</t>
+        </is>
+      </c>
+      <c r="SN1" s="1" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="SO1" s="1" t="inlineStr">
+        <is>
+          <t>similarities</t>
+        </is>
+      </c>
+      <c r="SP1" s="1" t="inlineStr">
+        <is>
+          <t>south</t>
+        </is>
+      </c>
+      <c r="SQ1" s="1" t="inlineStr">
+        <is>
+          <t>device</t>
+        </is>
+      </c>
+      <c r="SR1" s="1" t="inlineStr">
+        <is>
+          <t>soweto</t>
+        </is>
+      </c>
+      <c r="SS1" s="1" t="inlineStr">
+        <is>
+          <t>combined</t>
+        </is>
+      </c>
+      <c r="ST1" s="1" t="inlineStr">
+        <is>
+          <t>wais-r</t>
+        </is>
+      </c>
+      <c r="SU1" s="1" t="inlineStr">
+        <is>
+          <t>analogies</t>
+        </is>
+      </c>
+      <c r="SV1" s="1" t="inlineStr">
+        <is>
+          <t>zone</t>
+        </is>
+      </c>
+      <c r="SW1" s="1" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+      <c r="SX1" s="1" t="inlineStr">
+        <is>
+          <t>monitoring</t>
+        </is>
+      </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>leaming</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>observational</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>relation</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>emergence</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>mothers</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>school-age</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>skills</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>characteristics</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>basis</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>e.g.</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>social-interaction</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>theory</t>
+        </is>
+      </c>
+      <c r="TK1" s="1" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="TL1" s="1" t="inlineStr">
+        <is>
+          <t>proximal</t>
+        </is>
+      </c>
+      <c r="TM1" s="1" t="inlineStr">
+        <is>
+          <t>suggests</t>
+        </is>
+      </c>
+      <c r="TN1" s="1" t="inlineStr">
+        <is>
+          <t>internalization</t>
+        </is>
+      </c>
+      <c r="TO1" s="1" t="inlineStr">
+        <is>
+          <t>journal</t>
+        </is>
+      </c>
+      <c r="TP1" s="1" t="inlineStr">
+        <is>
+          <t>marland</t>
+        </is>
+      </c>
+      <c r="TQ1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="TR1" s="1" t="inlineStr">
         <is>
           <t>randomly</t>
         </is>
       </c>
-      <c r="RY1" s="1" t="inlineStr">
+      <c r="TS1" s="1" t="inlineStr">
+        <is>
+          <t>independent</t>
+        </is>
+      </c>
+      <c r="TT1" s="1" t="inlineStr">
+        <is>
+          <t>functions</t>
+        </is>
+      </c>
+      <c r="TU1" s="1" t="inlineStr">
+        <is>
+          <t>evident</t>
+        </is>
+      </c>
+      <c r="TV1" s="1" t="inlineStr">
+        <is>
+          <t>methods</t>
+        </is>
+      </c>
+      <c r="TW1" s="1" t="inlineStr">
         <is>
           <t>statistical</t>
         </is>
       </c>
-      <c r="RZ1" s="1" t="inlineStr">
-        <is>
-          <t>followed</t>
-        </is>
-      </c>
-      <c r="SA1" s="1" t="inlineStr">
-        <is>
-          <t>enrichment</t>
-        </is>
-      </c>
-      <c r="SB1" s="1" t="inlineStr">
-        <is>
-          <t>thus</t>
-        </is>
-      </c>
-      <c r="SC1" s="1" t="inlineStr">
-        <is>
-          <t>selecting</t>
-        </is>
-      </c>
-      <c r="SD1" s="1" t="inlineStr">
-        <is>
-          <t>emerged</t>
-        </is>
-      </c>
-      <c r="SE1" s="1" t="inlineStr">
-        <is>
-          <t>contrasted</t>
-        </is>
-      </c>
-      <c r="SF1" s="1" t="inlineStr">
+      <c r="TX1" s="1" t="inlineStr">
         <is>
           <t>theoretical</t>
         </is>
       </c>
-      <c r="SG1" s="1" t="inlineStr">
-        <is>
-          <t>10,000</t>
-        </is>
-      </c>
-      <c r="SH1" s="1" t="inlineStr">
-        <is>
-          <t>range</t>
-        </is>
-      </c>
-      <c r="SI1" s="1" t="inlineStr">
-        <is>
-          <t>analogies</t>
-        </is>
-      </c>
-      <c r="SJ1" s="1" t="inlineStr">
-        <is>
-          <t>tested</t>
-        </is>
-      </c>
-      <c r="SK1" s="1" t="inlineStr">
-        <is>
-          <t>similarities</t>
-        </is>
-      </c>
-      <c r="SL1" s="1" t="inlineStr">
-        <is>
-          <t>sufficiently</t>
-        </is>
-      </c>
-      <c r="SM1" s="1" t="inlineStr">
-        <is>
-          <t>statistically</t>
-        </is>
-      </c>
-      <c r="SN1" s="1" t="inlineStr">
-        <is>
-          <t>stanford-binet-iv</t>
-        </is>
-      </c>
-      <c r="SO1" s="1" t="inlineStr">
-        <is>
-          <t>stanford-binet</t>
-        </is>
-      </c>
-      <c r="SP1" s="1" t="inlineStr">
-        <is>
-          <t>serve</t>
-        </is>
-      </c>
-      <c r="SQ1" s="1" t="inlineStr">
-        <is>
-          <t>africans</t>
-        </is>
-      </c>
-      <c r="SR1" s="1" t="inlineStr">
-        <is>
-          <t>findings</t>
-        </is>
-      </c>
-      <c r="SS1" s="1" t="inlineStr">
-        <is>
-          <t>design</t>
-        </is>
-      </c>
-      <c r="ST1" s="1" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="SU1" s="1" t="inlineStr">
-        <is>
-          <t>screen</t>
-        </is>
-      </c>
-      <c r="SV1" s="1" t="inlineStr">
-        <is>
-          <t>restriction</t>
-        </is>
-      </c>
-      <c r="SW1" s="1" t="inlineStr">
-        <is>
-          <t>product-moment</t>
-        </is>
-      </c>
-      <c r="SX1" s="1" t="inlineStr">
-        <is>
-          <t>adults</t>
-        </is>
-      </c>
-      <c r="SY1" s="1" t="inlineStr">
-        <is>
-          <t>iv</t>
-        </is>
-      </c>
-      <c r="SZ1" s="1" t="inlineStr">
-        <is>
-          <t>fifty</t>
-        </is>
-      </c>
-      <c r="TA1" s="1" t="inlineStr">
-        <is>
-          <t>correlations</t>
-        </is>
-      </c>
-      <c r="TB1" s="1" t="inlineStr">
-        <is>
-          <t>corrected</t>
-        </is>
-      </c>
-      <c r="TC1" s="1" t="inlineStr">
-        <is>
-          <t>50-58</t>
-        </is>
-      </c>
-      <c r="TD1" s="1" t="inlineStr">
-        <is>
-          <t>south</t>
-        </is>
-      </c>
-      <c r="TE1" s="1" t="inlineStr">
-        <is>
-          <t>13-18-year-old</t>
-        </is>
-      </c>
-      <c r="TF1" s="1" t="inlineStr">
-        <is>
-          <t>battery</t>
-        </is>
-      </c>
-      <c r="TG1" s="1" t="inlineStr">
-        <is>
-          <t>appear</t>
-        </is>
-      </c>
-      <c r="TH1" s="1" t="inlineStr">
-        <is>
-          <t>adequately</t>
-        </is>
-      </c>
-      <c r="TI1" s="1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="TJ1" s="1" t="inlineStr">
-        <is>
-          <t>combined</t>
-        </is>
-      </c>
-      <c r="TK1" s="1" t="inlineStr">
-        <is>
-          <t>device</t>
-        </is>
-      </c>
-      <c r="TL1" s="1" t="inlineStr">
-        <is>
-          <t>soweto</t>
-        </is>
-      </c>
-      <c r="TM1" s="1" t="inlineStr">
-        <is>
-          <t>namely</t>
-        </is>
-      </c>
-      <c r="TN1" s="1" t="inlineStr">
-        <is>
-          <t>marland</t>
-        </is>
-      </c>
-      <c r="TO1" s="1" t="inlineStr">
-        <is>
-          <t>characterizes</t>
-        </is>
-      </c>
-      <c r="TP1" s="1" t="inlineStr">
-        <is>
-          <t>mothers</t>
-        </is>
-      </c>
-      <c r="TQ1" s="1" t="inlineStr">
-        <is>
-          <t>pupils</t>
-        </is>
-      </c>
-      <c r="TR1" s="1" t="inlineStr">
-        <is>
-          <t>pull-out</t>
-        </is>
-      </c>
-      <c r="TS1" s="1" t="inlineStr">
-        <is>
-          <t>nomination</t>
-        </is>
-      </c>
-      <c r="TT1" s="1" t="inlineStr">
-        <is>
-          <t>neglected</t>
-        </is>
-      </c>
-      <c r="TU1" s="1" t="inlineStr">
-        <is>
-          <t>opportunity</t>
-        </is>
-      </c>
-      <c r="TV1" s="1" t="inlineStr">
-        <is>
-          <t>instrument</t>
-        </is>
-      </c>
-      <c r="TW1" s="1" t="inlineStr">
-        <is>
-          <t>relative</t>
-        </is>
-      </c>
-      <c r="TX1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
       <c r="TY1" s="1" t="inlineStr">
         <is>
-          <t>methods</t>
+          <t>data</t>
         </is>
       </c>
       <c r="TZ1" s="1" t="inlineStr">
         <is>
-          <t>proximal</t>
+          <t>disruptive</t>
         </is>
       </c>
       <c r="UA1" s="1" t="inlineStr">
         <is>
-          <t>classmates</t>
+          <t>artistic</t>
         </is>
       </c>
       <c r="UB1" s="1" t="inlineStr">
         <is>
-          <t>relation</t>
+          <t>biographical</t>
         </is>
       </c>
       <c r="UC1" s="1" t="inlineStr">
         <is>
-          <t>school-age</t>
+          <t>ibric</t>
         </is>
       </c>
       <c r="UD1" s="1" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>12th</t>
         </is>
       </c>
       <c r="UE1" s="1" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>inventory</t>
         </is>
       </c>
       <c r="UF1" s="1" t="inlineStr">
         <is>
-          <t>assessing</t>
+          <t>leadership</t>
         </is>
       </c>
       <c r="UG1" s="1" t="inlineStr">
         <is>
-          <t>analyzed</t>
+          <t>learning-center</t>
         </is>
       </c>
       <c r="UH1" s="1" t="inlineStr">
         <is>
-          <t>social-interaction</t>
+          <t>nominations</t>
         </is>
       </c>
       <c r="UI1" s="1" t="inlineStr">
         <is>
-          <t>suggests</t>
+          <t>otis-lennon</t>
         </is>
       </c>
       <c r="UJ1" s="1" t="inlineStr">
         <is>
-          <t>theory</t>
+          <t>11th</t>
         </is>
       </c>
       <c r="UK1" s="1" t="inlineStr">
         <is>
-          <t>organiser</t>
+          <t>setting</t>
         </is>
       </c>
       <c r="UL1" s="1" t="inlineStr">
         <is>
-          <t>zone</t>
+          <t>sub-tests</t>
         </is>
       </c>
       <c r="UM1" s="1" t="inlineStr">
         <is>
-          <t>regression</t>
+          <t>determined</t>
         </is>
       </c>
       <c r="UN1" s="1" t="inlineStr">
         <is>
-          <t>observational</t>
+          <t>disaffected</t>
         </is>
       </c>
       <c r="UO1" s="1" t="inlineStr">
         <is>
-          <t>same-aged</t>
+          <t>achieving</t>
         </is>
       </c>
       <c r="UP1" s="1" t="inlineStr">
         <is>
-          <t>basis</t>
+          <t>sponsored</t>
         </is>
       </c>
       <c r="UQ1" s="1" t="inlineStr">
         <is>
-          <t>characteristics</t>
+          <t>analytic</t>
         </is>
       </c>
       <c r="UR1" s="1" t="inlineStr">
         <is>
-          <t>journal</t>
+          <t>analytic/convergent</t>
         </is>
       </c>
       <c r="US1" s="1" t="inlineStr">
         <is>
-          <t>collaboration</t>
+          <t>requests</t>
         </is>
       </c>
       <c r="UT1" s="1" t="inlineStr">
         <is>
-          <t>concepts</t>
+          <t>pursued</t>
         </is>
       </c>
       <c r="UU1" s="1" t="inlineStr">
         <is>
-          <t>e.g.</t>
+          <t>sent</t>
         </is>
       </c>
       <c r="UV1" s="1" t="inlineStr">
         <is>
-          <t>wais-r</t>
+          <t>questionnaires</t>
         </is>
       </c>
       <c r="UW1" s="1" t="inlineStr">
         <is>
-          <t>contexts</t>
+          <t>responded</t>
         </is>
       </c>
       <c r="UX1" s="1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>subsequent</t>
         </is>
       </c>
       <c r="UY1" s="1" t="inlineStr">
         <is>
-          <t>controlled</t>
+          <t>attention</t>
         </is>
       </c>
       <c r="UZ1" s="1" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>extraordinary</t>
         </is>
       </c>
       <c r="VA1" s="1" t="inlineStr">
         <is>
-          <t>emergence</t>
+          <t>computational</t>
         </is>
       </c>
       <c r="VB1" s="1" t="inlineStr">
         <is>
-          <t>evident</t>
+          <t>beagle</t>
         </is>
       </c>
       <c r="VC1" s="1" t="inlineStr">
         <is>
-          <t>viability</t>
+          <t>examines</t>
         </is>
       </c>
       <c r="VD1" s="1" t="inlineStr">
         <is>
-          <t>social-status</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="VE1" s="1" t="inlineStr">
         <is>
-          <t>functions</t>
+          <t>12</t>
         </is>
       </c>
       <c r="VF1" s="1" t="inlineStr">
         <is>
-          <t>independent</t>
+          <t>achievements</t>
         </is>
       </c>
       <c r="VG1" s="1" t="inlineStr">
         <is>
-          <t>area</t>
+          <t>voyage</t>
         </is>
       </c>
       <c r="VH1" s="1" t="inlineStr">
         <is>
-          <t>wisc-r.</t>
+          <t>together</t>
         </is>
       </c>
       <c r="VI1" s="1" t="inlineStr">
         <is>
-          <t>instruction</t>
+          <t>stevens</t>
         </is>
       </c>
       <c r="VJ1" s="1" t="inlineStr">
         <is>
-          <t>internalization</t>
+          <t>application</t>
         </is>
       </c>
       <c r="VK1" s="1" t="inlineStr">
         <is>
-          <t>leaming</t>
+          <t>spent</t>
         </is>
       </c>
       <c r="VL1" s="1" t="inlineStr">
         <is>
-          <t>monitoring</t>
+          <t>convergent</t>
         </is>
       </c>
       <c r="VM1" s="1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="VN1" s="1" t="inlineStr">
         <is>
-          <t>terms</t>
+          <t>reflects</t>
         </is>
       </c>
       <c r="VO1" s="1" t="inlineStr">
         <is>
-          <t>sociometric</t>
+          <t>mentor</t>
         </is>
       </c>
       <c r="VP1" s="1" t="inlineStr">
         <is>
-          <t>sub-tests</t>
+          <t>interests</t>
         </is>
       </c>
       <c r="VQ1" s="1" t="inlineStr">
         <is>
-          <t>disruptive</t>
+          <t>cambridge</t>
         </is>
       </c>
       <c r="VR1" s="1" t="inlineStr">
         <is>
-          <t>ibric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="VS1" s="1" t="inlineStr">
         <is>
-          <t>disaffected</t>
+          <t>friendship</t>
         </is>
       </c>
       <c r="VT1" s="1" t="inlineStr">
         <is>
-          <t>biographical</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="VU1" s="1" t="inlineStr">
         <is>
-          <t>artistic</t>
+          <t>aged</t>
         </is>
       </c>
       <c r="VV1" s="1" t="inlineStr">
         <is>
-          <t>setting</t>
+          <t>appropriate</t>
         </is>
       </c>
       <c r="VW1" s="1" t="inlineStr">
         <is>
-          <t>inventory</t>
+          <t>attended</t>
         </is>
       </c>
       <c r="VX1" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>awarded</t>
         </is>
       </c>
       <c r="VY1" s="1" t="inlineStr">
         <is>
-          <t>leadership</t>
+          <t>detail</t>
         </is>
       </c>
       <c r="VZ1" s="1" t="inlineStr">
         <is>
-          <t>learning-center</t>
+          <t>detailed</t>
         </is>
       </c>
       <c r="WA1" s="1" t="inlineStr">
         <is>
-          <t>nominations</t>
+          <t>divergent</t>
         </is>
       </c>
       <c r="WB1" s="1" t="inlineStr">
         <is>
-          <t>otis-lennon</t>
+          <t>ex</t>
         </is>
       </c>
       <c r="WC1" s="1" t="inlineStr">
         <is>
-          <t>12th</t>
+          <t>hibited</t>
         </is>
       </c>
       <c r="WD1" s="1" t="inlineStr">
         <is>
-          <t>11th</t>
+          <t>information</t>
         </is>
       </c>
       <c r="WE1" s="1" t="inlineStr">
         <is>
-          <t>determined</t>
+          <t>precision</t>
         </is>
       </c>
       <c r="WF1" s="1" t="inlineStr">
         <is>
+          <t>rather</t>
+        </is>
+      </c>
+      <c r="WG1" s="1" t="inlineStr">
+        <is>
+          <t>skill</t>
+        </is>
+      </c>
+      <c r="WH1" s="1" t="inlineStr">
+        <is>
+          <t>proportion</t>
+        </is>
+      </c>
+      <c r="WI1" s="1" t="inlineStr">
+        <is>
+          <t>pertaining</t>
+        </is>
+      </c>
+      <c r="WJ1" s="1" t="inlineStr">
+        <is>
+          <t>often</t>
+        </is>
+      </c>
+      <c r="WK1" s="1" t="inlineStr">
+        <is>
+          <t>november</t>
+        </is>
+      </c>
+      <c r="WL1" s="1" t="inlineStr">
+        <is>
+          <t>johns</t>
+        </is>
+      </c>
+      <c r="WM1" s="1" t="inlineStr">
+        <is>
+          <t>hopkins</t>
+        </is>
+      </c>
+      <c r="WN1" s="1" t="inlineStr">
+        <is>
+          <t>following</t>
+        </is>
+      </c>
+      <c r="WO1" s="1" t="inlineStr">
+        <is>
+          <t>cases</t>
+        </is>
+      </c>
+      <c r="WP1" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="WQ1" s="1" t="inlineStr">
+        <is>
+          <t>honors</t>
+        </is>
+      </c>
+      <c r="WR1" s="1" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="WS1" s="1" t="inlineStr">
+        <is>
+          <t>earn</t>
+        </is>
+      </c>
+      <c r="WT1" s="1" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="WU1" s="1" t="inlineStr">
+        <is>
+          <t>unique</t>
+        </is>
+      </c>
+      <c r="WV1" s="1" t="inlineStr">
+        <is>
+          <t>superior</t>
+        </is>
+      </c>
+      <c r="WW1" s="1" t="inlineStr">
+        <is>
+          <t>screen/identify</t>
+        </is>
+      </c>
+      <c r="WX1" s="1" t="inlineStr">
+        <is>
+          <t>schoolers—in</t>
+        </is>
+      </c>
+      <c r="WY1" s="1" t="inlineStr">
+        <is>
+          <t>publicly</t>
+        </is>
+      </c>
+      <c r="WZ1" s="1" t="inlineStr">
+        <is>
+          <t>presented</t>
+        </is>
+      </c>
+      <c r="XA1" s="1" t="inlineStr">
+        <is>
+          <t>operation</t>
+        </is>
+      </c>
+      <c r="XB1" s="1" t="inlineStr">
+        <is>
+          <t>self-esteem</t>
+        </is>
+      </c>
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>self-concept</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
+        <is>
+          <t>relatively</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>prestigious</t>
+        </is>
+      </c>
+      <c r="XF1" s="1" t="inlineStr">
+        <is>
+          <t>present</t>
+        </is>
+      </c>
+      <c r="XG1" s="1" t="inlineStr">
+        <is>
+          <t>paternal</t>
+        </is>
+      </c>
+      <c r="XH1" s="1" t="inlineStr">
+        <is>
+          <t>occupations</t>
+        </is>
+      </c>
+      <c r="XI1" s="1" t="inlineStr">
+        <is>
+          <t>mature</t>
+        </is>
+      </c>
+      <c r="XJ1" s="1" t="inlineStr">
+        <is>
+          <t>lower</t>
+        </is>
+      </c>
+      <c r="XK1" s="1" t="inlineStr">
+        <is>
+          <t>indicate</t>
+        </is>
+      </c>
+      <c r="XL1" s="1" t="inlineStr">
+        <is>
+          <t>generally</t>
+        </is>
+      </c>
+      <c r="XM1" s="1" t="inlineStr">
+        <is>
+          <t>favorable</t>
+        </is>
+      </c>
+      <c r="XN1" s="1" t="inlineStr">
+        <is>
+          <t>evidence</t>
+        </is>
+      </c>
+      <c r="XO1" s="1" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="XP1" s="1" t="inlineStr">
+        <is>
+          <t>answers</t>
+        </is>
+      </c>
+      <c r="XQ1" s="1" t="inlineStr">
+        <is>
+          <t>enjoy</t>
+        </is>
+      </c>
+      <c r="XR1" s="1" t="inlineStr">
+        <is>
+          <t>average-scoring</t>
+        </is>
+      </c>
+      <c r="XS1" s="1" t="inlineStr">
+        <is>
+          <t>swift</t>
+        </is>
+      </c>
+      <c r="XT1" s="1" t="inlineStr">
+        <is>
+          <t>validity</t>
+        </is>
+      </c>
+      <c r="XU1" s="1" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="XV1" s="1" t="inlineStr">
+        <is>
+          <t>attend</t>
+        </is>
+      </c>
+      <c r="XW1" s="1" t="inlineStr">
+        <is>
+          <t>strongly</t>
+        </is>
+      </c>
+      <c r="XX1" s="1" t="inlineStr">
+        <is>
+          <t>advisable</t>
+        </is>
+      </c>
+      <c r="XY1" s="1" t="inlineStr">
+        <is>
+          <t>serious</t>
+        </is>
+      </c>
+      <c r="XZ1" s="1" t="inlineStr">
+        <is>
+          <t>race</t>
+        </is>
+      </c>
+      <c r="YA1" s="1" t="inlineStr">
+        <is>
+          <t>necessarily</t>
+        </is>
+      </c>
+      <c r="YB1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="YC1" s="1" t="inlineStr">
+        <is>
+          <t>marginal</t>
+        </is>
+      </c>
+      <c r="YD1" s="1" t="inlineStr">
+        <is>
+          <t>interpreted</t>
+        </is>
+      </c>
+      <c r="YE1" s="1" t="inlineStr">
+        <is>
+          <t>gave</t>
+        </is>
+      </c>
+      <c r="YF1" s="1" t="inlineStr">
+        <is>
+          <t>doubt</t>
+        </is>
+      </c>
+      <c r="YG1" s="1" t="inlineStr">
+        <is>
+          <t>depends</t>
+        </is>
+      </c>
+      <c r="YH1" s="1" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
+      <c r="YI1" s="1" t="inlineStr">
+        <is>
+          <t>coding</t>
+        </is>
+      </c>
+      <c r="YJ1" s="1" t="inlineStr">
+        <is>
+          <t>clinic</t>
+        </is>
+      </c>
+      <c r="YK1" s="1" t="inlineStr">
+        <is>
+          <t>casting</t>
+        </is>
+      </c>
+      <c r="YL1" s="1" t="inlineStr">
+        <is>
+          <t>bonuses</t>
+        </is>
+      </c>
+      <c r="YM1" s="1" t="inlineStr">
+        <is>
+          <t>block</t>
+        </is>
+      </c>
+      <c r="YN1" s="1" t="inlineStr">
+        <is>
+          <t>utility</t>
+        </is>
+      </c>
+      <c r="YO1" s="1" t="inlineStr">
+        <is>
+          <t>trend</t>
+        </is>
+      </c>
+      <c r="YP1" s="1" t="inlineStr">
+        <is>
+          <t>distinguished</t>
+        </is>
+      </c>
+      <c r="YQ1" s="1" t="inlineStr">
+        <is>
+          <t>individualized</t>
+        </is>
+      </c>
+      <c r="YR1" s="1" t="inlineStr">
+        <is>
+          <t>funded</t>
+        </is>
+      </c>
+      <c r="YS1" s="1" t="inlineStr">
+        <is>
+          <t>formal</t>
+        </is>
+      </c>
+      <c r="YT1" s="1" t="inlineStr">
+        <is>
+          <t>five</t>
+        </is>
+      </c>
+      <c r="YU1" s="1" t="inlineStr">
+        <is>
+          <t>comparable</t>
+        </is>
+      </c>
+      <c r="YV1" s="1" t="inlineStr">
+        <is>
+          <t>essential</t>
+        </is>
+      </c>
+      <c r="YW1" s="1" t="inlineStr">
+        <is>
+          <t>describes</t>
+        </is>
+      </c>
+      <c r="YX1" s="1" t="inlineStr">
+        <is>
+          <t>children—pre—</t>
+        </is>
+      </c>
+      <c r="YY1" s="1" t="inlineStr">
+        <is>
+          <t>attempting</t>
+        </is>
+      </c>
+      <c r="YZ1" s="1" t="inlineStr">
+        <is>
+          <t>academically/intellectually</t>
+        </is>
+      </c>
+      <c r="ZA1" s="1" t="inlineStr">
+        <is>
+          <t>5-year-olds</t>
+        </is>
+      </c>
+      <c r="ZB1" s="1" t="inlineStr">
+        <is>
+          <t>3-</t>
+        </is>
+      </c>
+      <c r="ZC1" s="1" t="inlineStr">
+        <is>
+          <t>quite</t>
+        </is>
+      </c>
+      <c r="ZD1" s="1" t="inlineStr">
+        <is>
+          <t>outstanding</t>
+        </is>
+      </c>
+      <c r="ZE1" s="1" t="inlineStr">
+        <is>
+          <t>nonaccelerants</t>
+        </is>
+      </c>
+      <c r="ZF1" s="1" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="ZG1" s="1" t="inlineStr">
+        <is>
+          <t>best</t>
+        </is>
+      </c>
+      <c r="ZH1" s="1" t="inlineStr">
+        <is>
+          <t>beginning</t>
+        </is>
+      </c>
+      <c r="ZI1" s="1" t="inlineStr">
+        <is>
+          <t>identifies</t>
+        </is>
+      </c>
+      <c r="ZJ1" s="1" t="inlineStr">
+        <is>
+          <t>faced</t>
+        </is>
+      </c>
+      <c r="ZK1" s="1" t="inlineStr">
+        <is>
+          <t>involves</t>
+        </is>
+      </c>
+      <c r="ZL1" s="1" t="inlineStr">
+        <is>
+          <t>highly</t>
+        </is>
+      </c>
+      <c r="ZM1" s="1" t="inlineStr">
+        <is>
+          <t>anxious</t>
+        </is>
+      </c>
+      <c r="ZN1" s="1" t="inlineStr">
+        <is>
+          <t>capable</t>
+        </is>
+      </c>
+      <c r="ZO1" s="1" t="inlineStr">
+        <is>
+          <t>need</t>
+        </is>
+      </c>
+      <c r="ZP1" s="1" t="inlineStr">
+        <is>
+          <t>equal</t>
+        </is>
+      </c>
+      <c r="ZQ1" s="1" t="inlineStr">
+        <is>
+          <t>evaluated</t>
+        </is>
+      </c>
+      <c r="ZR1" s="1" t="inlineStr">
+        <is>
+          <t>freshman</t>
+        </is>
+      </c>
+      <c r="ZS1" s="1" t="inlineStr">
+        <is>
+          <t>graduation</t>
+        </is>
+      </c>
+      <c r="ZT1" s="1" t="inlineStr">
+        <is>
+          <t>graduate</t>
+        </is>
+      </c>
+      <c r="ZU1" s="1" t="inlineStr">
+        <is>
+          <t>whole</t>
+        </is>
+      </c>
+      <c r="ZV1" s="1" t="inlineStr">
+        <is>
+          <t>undergraduates</t>
+        </is>
+      </c>
+      <c r="ZW1" s="1" t="inlineStr">
+        <is>
+          <t>typical</t>
+        </is>
+      </c>
+      <c r="ZX1" s="1" t="inlineStr">
+        <is>
           <t>starting</t>
         </is>
       </c>
-      <c r="WG1" s="1" t="inlineStr">
-        <is>
-          <t>achieving</t>
-        </is>
-      </c>
-      <c r="WH1" s="1" t="inlineStr">
-        <is>
-          <t>highly</t>
-        </is>
-      </c>
-      <c r="WI1" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="WJ1" s="1" t="inlineStr">
-        <is>
-          <t>questionnaires</t>
-        </is>
-      </c>
-      <c r="WK1" s="1" t="inlineStr">
-        <is>
-          <t>responded</t>
-        </is>
-      </c>
-      <c r="WL1" s="1" t="inlineStr">
-        <is>
-          <t>analytic</t>
-        </is>
-      </c>
-      <c r="WM1" s="1" t="inlineStr">
+      <c r="ZY1" s="1" t="inlineStr">
         <is>
           <t>shorter</t>
         </is>
       </c>
-      <c r="WN1" s="1" t="inlineStr">
-        <is>
-          <t>under</t>
-        </is>
-      </c>
-      <c r="WO1" s="1" t="inlineStr">
-        <is>
-          <t>quite</t>
-        </is>
-      </c>
-      <c r="WP1" s="1" t="inlineStr">
-        <is>
-          <t>computational</t>
-        </is>
-      </c>
-      <c r="WQ1" s="1" t="inlineStr">
-        <is>
-          <t>analytic/convergent</t>
-        </is>
-      </c>
-      <c r="WR1" s="1" t="inlineStr">
-        <is>
-          <t>attention</t>
-        </is>
-      </c>
-      <c r="WS1" s="1" t="inlineStr">
-        <is>
-          <t>subsequent</t>
-        </is>
-      </c>
-      <c r="WT1" s="1" t="inlineStr">
-        <is>
-          <t>skill</t>
-        </is>
-      </c>
-      <c r="WU1" s="1" t="inlineStr">
-        <is>
-          <t>convergent</t>
-        </is>
-      </c>
-      <c r="WV1" s="1" t="inlineStr">
-        <is>
-          <t>detail</t>
-        </is>
-      </c>
-      <c r="WW1" s="1" t="inlineStr">
-        <is>
-          <t>detailed</t>
-        </is>
-      </c>
-      <c r="WX1" s="1" t="inlineStr">
-        <is>
-          <t>sponsored</t>
-        </is>
-      </c>
-      <c r="WY1" s="1" t="inlineStr">
-        <is>
-          <t>divergent</t>
-        </is>
-      </c>
-      <c r="WZ1" s="1" t="inlineStr">
-        <is>
-          <t>ex</t>
-        </is>
-      </c>
-      <c r="XA1" s="1" t="inlineStr">
-        <is>
-          <t>sent</t>
-        </is>
-      </c>
-      <c r="XB1" s="1" t="inlineStr">
-        <is>
-          <t>hibited</t>
-        </is>
-      </c>
-      <c r="XC1" s="1" t="inlineStr">
-        <is>
-          <t>information</t>
-        </is>
-      </c>
-      <c r="XD1" s="1" t="inlineStr">
-        <is>
-          <t>rather</t>
-        </is>
-      </c>
-      <c r="XE1" s="1" t="inlineStr">
-        <is>
-          <t>honors</t>
-        </is>
-      </c>
-      <c r="XF1" s="1" t="inlineStr">
-        <is>
-          <t>requests</t>
-        </is>
-      </c>
-      <c r="XG1" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="XH1" s="1" t="inlineStr">
-        <is>
-          <t>pursued</t>
-        </is>
-      </c>
-      <c r="XI1" s="1" t="inlineStr">
-        <is>
-          <t>appropriate</t>
-        </is>
-      </c>
-      <c r="XJ1" s="1" t="inlineStr">
-        <is>
-          <t>extraordinary</t>
-        </is>
-      </c>
-      <c r="XK1" s="1" t="inlineStr">
-        <is>
-          <t>1215</t>
-        </is>
-      </c>
-      <c r="XL1" s="1" t="inlineStr">
-        <is>
-          <t>interests</t>
-        </is>
-      </c>
-      <c r="XM1" s="1" t="inlineStr">
-        <is>
-          <t>mentor</t>
-        </is>
-      </c>
-      <c r="XN1" s="1" t="inlineStr">
-        <is>
-          <t>attended</t>
-        </is>
-      </c>
-      <c r="XO1" s="1" t="inlineStr">
-        <is>
-          <t>reflects</t>
-        </is>
-      </c>
-      <c r="XP1" s="1" t="inlineStr">
-        <is>
-          <t>relationship</t>
-        </is>
-      </c>
-      <c r="XQ1" s="1" t="inlineStr">
-        <is>
-          <t>spent</t>
-        </is>
-      </c>
-      <c r="XR1" s="1" t="inlineStr">
-        <is>
-          <t>proportion</t>
-        </is>
-      </c>
-      <c r="XS1" s="1" t="inlineStr">
-        <is>
-          <t>stevens</t>
-        </is>
-      </c>
-      <c r="XT1" s="1" t="inlineStr">
-        <is>
-          <t>together</t>
-        </is>
-      </c>
-      <c r="XU1" s="1" t="inlineStr">
-        <is>
-          <t>voyage</t>
-        </is>
-      </c>
-      <c r="XV1" s="1" t="inlineStr">
-        <is>
-          <t>3-</t>
-        </is>
-      </c>
-      <c r="XW1" s="1" t="inlineStr">
-        <is>
-          <t>aged</t>
-        </is>
-      </c>
-      <c r="XX1" s="1" t="inlineStr">
-        <is>
-          <t>whole</t>
-        </is>
-      </c>
-      <c r="XY1" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="XZ1" s="1" t="inlineStr">
-        <is>
-          <t>examines</t>
-        </is>
-      </c>
-      <c r="YA1" s="1" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="YB1" s="1" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="YC1" s="1" t="inlineStr">
-        <is>
-          <t>cambridge</t>
-        </is>
-      </c>
-      <c r="YD1" s="1" t="inlineStr">
-        <is>
-          <t>pertaining</t>
-        </is>
-      </c>
-      <c r="YE1" s="1" t="inlineStr">
-        <is>
-          <t>often</t>
-        </is>
-      </c>
-      <c r="YF1" s="1" t="inlineStr">
-        <is>
-          <t>november</t>
-        </is>
-      </c>
-      <c r="YG1" s="1" t="inlineStr">
-        <is>
-          <t>johns</t>
-        </is>
-      </c>
-      <c r="YH1" s="1" t="inlineStr">
-        <is>
-          <t>hopkins</t>
-        </is>
-      </c>
-      <c r="YI1" s="1" t="inlineStr">
-        <is>
-          <t>following</t>
-        </is>
-      </c>
-      <c r="YJ1" s="1" t="inlineStr">
-        <is>
-          <t>typical</t>
-        </is>
-      </c>
-      <c r="YK1" s="1" t="inlineStr">
-        <is>
-          <t>undergraduates</t>
-        </is>
-      </c>
-      <c r="YL1" s="1" t="inlineStr">
-        <is>
-          <t>cases</t>
-        </is>
-      </c>
-      <c r="YM1" s="1" t="inlineStr">
-        <is>
-          <t>large</t>
-        </is>
-      </c>
-      <c r="YN1" s="1" t="inlineStr">
-        <is>
-          <t>nonaccelerants</t>
-        </is>
-      </c>
-      <c r="YO1" s="1" t="inlineStr">
-        <is>
-          <t>outstanding</t>
-        </is>
-      </c>
-      <c r="YP1" s="1" t="inlineStr">
-        <is>
-          <t>awarded</t>
-        </is>
-      </c>
-      <c r="YQ1" s="1" t="inlineStr">
-        <is>
-          <t>application</t>
-        </is>
-      </c>
-      <c r="YR1" s="1" t="inlineStr">
-        <is>
-          <t>beagle</t>
-        </is>
-      </c>
-      <c r="YS1" s="1" t="inlineStr">
-        <is>
-          <t>friendship</t>
-        </is>
-      </c>
-      <c r="YT1" s="1" t="inlineStr">
+      <c r="ZZ1" s="1" t="inlineStr">
+        <is>
+          <t>seems</t>
+        </is>
+      </c>
+      <c r="AAA1" s="1" t="inlineStr">
         <is>
           <t>scholastic</t>
         </is>
       </c>
-      <c r="YU1" s="1" t="inlineStr">
-        <is>
-          <t>evaluated</t>
-        </is>
-      </c>
-      <c r="YV1" s="1" t="inlineStr">
-        <is>
-          <t>freshman</t>
-        </is>
-      </c>
-      <c r="YW1" s="1" t="inlineStr">
-        <is>
-          <t>faced</t>
-        </is>
-      </c>
-      <c r="YX1" s="1" t="inlineStr">
-        <is>
-          <t>five</t>
-        </is>
-      </c>
-      <c r="YY1" s="1" t="inlineStr">
-        <is>
-          <t>formal</t>
-        </is>
-      </c>
-      <c r="YZ1" s="1" t="inlineStr">
-        <is>
-          <t>funded</t>
-        </is>
-      </c>
-      <c r="ZA1" s="1" t="inlineStr">
-        <is>
-          <t>identifies</t>
-        </is>
-      </c>
-      <c r="ZB1" s="1" t="inlineStr">
-        <is>
-          <t>individualized</t>
-        </is>
-      </c>
-      <c r="ZC1" s="1" t="inlineStr">
-        <is>
-          <t>involves</t>
-        </is>
-      </c>
-      <c r="ZD1" s="1" t="inlineStr">
-        <is>
-          <t>achievements</t>
-        </is>
-      </c>
-      <c r="ZE1" s="1" t="inlineStr">
-        <is>
-          <t>presented</t>
-        </is>
-      </c>
-      <c r="ZF1" s="1" t="inlineStr">
-        <is>
-          <t>advisable</t>
-        </is>
-      </c>
-      <c r="ZG1" s="1" t="inlineStr">
-        <is>
-          <t>equal</t>
-        </is>
-      </c>
-      <c r="ZH1" s="1" t="inlineStr">
-        <is>
-          <t>attend</t>
-        </is>
-      </c>
-      <c r="ZI1" s="1" t="inlineStr">
-        <is>
-          <t>describes</t>
-        </is>
-      </c>
-      <c r="ZJ1" s="1" t="inlineStr">
-        <is>
-          <t>beginning</t>
-        </is>
-      </c>
-      <c r="ZK1" s="1" t="inlineStr">
-        <is>
-          <t>publicly</t>
-        </is>
-      </c>
-      <c r="ZL1" s="1" t="inlineStr">
-        <is>
-          <t>seems</t>
-        </is>
-      </c>
-      <c r="ZM1" s="1" t="inlineStr">
-        <is>
-          <t>schoolers—in</t>
-        </is>
-      </c>
-      <c r="ZN1" s="1" t="inlineStr">
-        <is>
-          <t>best</t>
-        </is>
-      </c>
-      <c r="ZO1" s="1" t="inlineStr">
-        <is>
-          <t>graduation</t>
-        </is>
-      </c>
-      <c r="ZP1" s="1" t="inlineStr">
-        <is>
-          <t>screen/identify</t>
-        </is>
-      </c>
-      <c r="ZQ1" s="1" t="inlineStr">
-        <is>
-          <t>graduate</t>
-        </is>
-      </c>
-      <c r="ZR1" s="1" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="ZS1" s="1" t="inlineStr">
-        <is>
-          <t>need</t>
-        </is>
-      </c>
-      <c r="ZT1" s="1" t="inlineStr">
-        <is>
-          <t>superior</t>
-        </is>
-      </c>
-      <c r="ZU1" s="1" t="inlineStr">
-        <is>
-          <t>essential</t>
-        </is>
-      </c>
-      <c r="ZV1" s="1" t="inlineStr">
-        <is>
-          <t>earn</t>
-        </is>
-      </c>
-      <c r="ZW1" s="1" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="ZX1" s="1" t="inlineStr">
-        <is>
-          <t>5-year-olds</t>
-        </is>
-      </c>
-      <c r="ZY1" s="1" t="inlineStr">
-        <is>
-          <t>attempting</t>
-        </is>
-      </c>
-      <c r="ZZ1" s="1" t="inlineStr">
-        <is>
-          <t>operation</t>
-        </is>
-      </c>
-      <c r="AAA1" s="1" t="inlineStr">
-        <is>
-          <t>academically/intellectually</t>
-        </is>
-      </c>
       <c r="AAB1" s="1" t="inlineStr">
         <is>
-          <t>children—pre—</t>
+          <t>adjustment</t>
         </is>
       </c>
       <c r="AAC1" s="1" t="inlineStr">
         <is>
+          <t>incorporating</t>
+        </is>
+      </c>
+      <c r="AAD1" s="1" t="inlineStr">
+        <is>
+          <t>lagged</t>
+        </is>
+      </c>
+      <c r="AAE1" s="1" t="inlineStr">
+        <is>
+          <t>approaches</t>
+        </is>
+      </c>
+      <c r="AAF1" s="1" t="inlineStr">
+        <is>
+          <t>interventions</t>
+        </is>
+      </c>
+      <c r="AAG1" s="1" t="inlineStr">
+        <is>
+          <t>considerations</t>
+        </is>
+      </c>
+      <c r="AAH1" s="1" t="inlineStr">
+        <is>
+          <t>equity</t>
+        </is>
+      </c>
+      <c r="AAI1" s="1" t="inlineStr">
+        <is>
+          <t>diverse</t>
+        </is>
+      </c>
+      <c r="AAJ1" s="1" t="inlineStr">
+        <is>
+          <t>assess</t>
+        </is>
+      </c>
+      <c r="AAK1" s="1" t="inlineStr">
+        <is>
+          <t>behind</t>
+        </is>
+      </c>
+      <c r="AAL1" s="1" t="inlineStr">
+        <is>
+          <t>culturally</t>
+        </is>
+      </c>
+      <c r="AAM1" s="1" t="inlineStr">
+        <is>
+          <t>consistently</t>
+        </is>
+      </c>
+      <c r="AAN1" s="1" t="inlineStr">
+        <is>
+          <t>yearbook</t>
+        </is>
+      </c>
+      <c r="AAO1" s="1" t="inlineStr">
+        <is>
+          <t>logically</t>
+        </is>
+      </c>
+      <c r="AAP1" s="1" t="inlineStr">
+        <is>
+          <t>addressing</t>
+        </is>
+      </c>
+      <c r="AAQ1" s="1" t="inlineStr">
+        <is>
+          <t>forty-eight</t>
+        </is>
+      </c>
+      <c r="AAR1" s="1" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="AAS1" s="1" t="inlineStr">
+        <is>
+          <t>3-8</t>
+        </is>
+      </c>
+      <c r="AAT1" s="1" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="AAU1" s="1" t="inlineStr">
+        <is>
+          <t>beyond</t>
+        </is>
+      </c>
+      <c r="AAV1" s="1" t="inlineStr">
+        <is>
+          <t>control</t>
+        </is>
+      </c>
+      <c r="AAW1" s="1" t="inlineStr">
+        <is>
+          <t>decisions</t>
+        </is>
+      </c>
+      <c r="AAX1" s="1" t="inlineStr">
+        <is>
+          <t>dependent</t>
+        </is>
+      </c>
+      <c r="AAY1" s="1" t="inlineStr">
+        <is>
+          <t>discriminant</t>
+        </is>
+      </c>
+      <c r="AAZ1" s="1" t="inlineStr">
+        <is>
+          <t>effort</t>
+        </is>
+      </c>
+      <c r="ABA1" s="1" t="inlineStr">
+        <is>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="ABB1" s="1" t="inlineStr">
+        <is>
+          <t>environmental</t>
+        </is>
+      </c>
+      <c r="ABC1" s="1" t="inlineStr">
+        <is>
+          <t>experimental</t>
+        </is>
+      </c>
+      <c r="ABD1" s="1" t="inlineStr">
+        <is>
+          <t>grades</t>
+        </is>
+      </c>
+      <c r="ABE1" s="1" t="inlineStr">
+        <is>
+          <t>applications</t>
+        </is>
+      </c>
+      <c r="ABF1" s="1" t="inlineStr">
+        <is>
+          <t>hierarchical</t>
+        </is>
+      </c>
+      <c r="ABG1" s="1" t="inlineStr">
+        <is>
+          <t>initiate</t>
+        </is>
+      </c>
+      <c r="ABH1" s="1" t="inlineStr">
+        <is>
+          <t>lessons</t>
+        </is>
+      </c>
+      <c r="ABI1" s="1" t="inlineStr">
+        <is>
+          <t>membership</t>
+        </is>
+      </c>
+      <c r="ABJ1" s="1" t="inlineStr">
+        <is>
+          <t>organizing</t>
+        </is>
+      </c>
+      <c r="ABK1" s="1" t="inlineStr">
+        <is>
+          <t>parsonal</t>
+        </is>
+      </c>
+      <c r="ABL1" s="1" t="inlineStr">
+        <is>
+          <t>proved</t>
+        </is>
+      </c>
+      <c r="ABM1" s="1" t="inlineStr">
+        <is>
+          <t>received</t>
+        </is>
+      </c>
+      <c r="ABN1" s="1" t="inlineStr">
+        <is>
+          <t>self-efficacy</t>
+        </is>
+      </c>
+      <c r="ABO1" s="1" t="inlineStr">
+        <is>
+          <t>seven</t>
+        </is>
+      </c>
+      <c r="ABP1" s="1" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="ABQ1" s="1" t="inlineStr">
+        <is>
+          <t>strength</t>
+        </is>
+      </c>
+      <c r="ABR1" s="1" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="ABS1" s="1" t="inlineStr">
+        <is>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="ABT1" s="1" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="ABU1" s="1" t="inlineStr">
+        <is>
+          <t>outlines</t>
+        </is>
+      </c>
+      <c r="ABV1" s="1" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="ABW1" s="1" t="inlineStr">
+        <is>
+          <t>underlying</t>
+        </is>
+      </c>
+      <c r="ABX1" s="1" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="ABY1" s="1" t="inlineStr">
+        <is>
+          <t>so-called</t>
+        </is>
+      </c>
+      <c r="ABZ1" s="1" t="inlineStr">
+        <is>
+          <t>sketch</t>
+        </is>
+      </c>
+      <c r="ACA1" s="1" t="inlineStr">
+        <is>
+          <t>sciences—the</t>
+        </is>
+      </c>
+      <c r="ACB1" s="1" t="inlineStr">
+        <is>
+          <t>sciences</t>
+        </is>
+      </c>
+      <c r="ACC1" s="1" t="inlineStr">
+        <is>
+          <t>recent</t>
+        </is>
+      </c>
+      <c r="ACD1" s="1" t="inlineStr">
+        <is>
+          <t>qualitative</t>
+        </is>
+      </c>
+      <c r="ACE1" s="1" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="ACF1" s="1" t="inlineStr">
+        <is>
+          <t>primarily</t>
+        </is>
+      </c>
+      <c r="ACG1" s="1" t="inlineStr">
+        <is>
+          <t>phillips</t>
+        </is>
+      </c>
+      <c r="ACH1" s="1" t="inlineStr">
+        <is>
+          <t>natural</t>
+        </is>
+      </c>
+      <c r="ACI1" s="1" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="ACJ1" s="1" t="inlineStr">
+        <is>
+          <t>methodological</t>
+        </is>
+      </c>
+      <c r="ACK1" s="1" t="inlineStr">
+        <is>
+          <t>orientation</t>
+        </is>
+      </c>
+      <c r="ACL1" s="1" t="inlineStr">
+        <is>
+          <t>investigators</t>
+        </is>
+      </c>
+      <c r="ACM1" s="1" t="inlineStr">
+        <is>
+          <t>heavily</t>
+        </is>
+      </c>
+      <c r="ACN1" s="1" t="inlineStr">
+        <is>
+          <t>finally</t>
+        </is>
+      </c>
+      <c r="ACO1" s="1" t="inlineStr">
+        <is>
+          <t>exclusively</t>
+        </is>
+      </c>
+      <c r="ACP1" s="1" t="inlineStr">
+        <is>
+          <t>emerging</t>
+        </is>
+      </c>
+      <c r="ACQ1" s="1" t="inlineStr">
+        <is>
+          <t>embraced</t>
+        </is>
+      </c>
+      <c r="ACR1" s="1" t="inlineStr">
+        <is>
+          <t>drawing</t>
+        </is>
+      </c>
+      <c r="ACS1" s="1" t="inlineStr">
+        <is>
+          <t>delineate</t>
+        </is>
+      </c>
+      <c r="ACT1" s="1" t="inlineStr">
+        <is>
+          <t>consider</t>
+        </is>
+      </c>
+      <c r="ACU1" s="1" t="inlineStr">
+        <is>
+          <t>beliefs</t>
+        </is>
+      </c>
+      <c r="ACV1" s="1" t="inlineStr">
+        <is>
+          <t>major</t>
+        </is>
+      </c>
+      <c r="ACW1" s="1" t="inlineStr">
+        <is>
+          <t>populations</t>
+        </is>
+      </c>
+      <c r="ACX1" s="1" t="inlineStr">
+        <is>
+          <t>pluralism</t>
+        </is>
+      </c>
+      <c r="ACY1" s="1" t="inlineStr">
+        <is>
+          <t>influence</t>
+        </is>
+      </c>
+      <c r="ACZ1" s="1" t="inlineStr">
+        <is>
+          <t>flowering</t>
+        </is>
+      </c>
+      <c r="ADA1" s="1" t="inlineStr">
+        <is>
+          <t>founding</t>
+        </is>
+      </c>
+      <c r="ADB1" s="1" t="inlineStr">
+        <is>
+          <t>francesgalton</t>
+        </is>
+      </c>
+      <c r="ADC1" s="1" t="inlineStr">
+        <is>
+          <t>gift</t>
+        </is>
+      </c>
+      <c r="ADD1" s="1" t="inlineStr">
+        <is>
+          <t>heredity</t>
+        </is>
+      </c>
+      <c r="ADE1" s="1" t="inlineStr">
+        <is>
+          <t>historical</t>
+        </is>
+      </c>
+      <c r="ADF1" s="1" t="inlineStr">
+        <is>
+          <t>inspired</t>
+        </is>
+      </c>
+      <c r="ADG1" s="1" t="inlineStr">
+        <is>
+          <t>attempts</t>
+        </is>
+      </c>
+      <c r="ADH1" s="1" t="inlineStr">
+        <is>
+          <t>intellect</t>
+        </is>
+      </c>
+      <c r="ADI1" s="1" t="inlineStr">
+        <is>
+          <t>karl</t>
+        </is>
+      </c>
+      <c r="ADJ1" s="1" t="inlineStr">
+        <is>
+          <t>late</t>
+        </is>
+      </c>
+      <c r="ADK1" s="1" t="inlineStr">
+        <is>
+          <t>mainly</t>
+        </is>
+      </c>
+      <c r="ADL1" s="1" t="inlineStr">
+        <is>
+          <t>mental</t>
+        </is>
+      </c>
+      <c r="ADM1" s="1" t="inlineStr">
+        <is>
+          <t>whereas</t>
+        </is>
+      </c>
+      <c r="ADN1" s="1" t="inlineStr">
+        <is>
+          <t>events</t>
+        </is>
+      </c>
+      <c r="ADO1" s="1" t="inlineStr">
+        <is>
+          <t>eugenics</t>
+        </is>
+      </c>
+      <c r="ADP1" s="1" t="inlineStr">
+        <is>
+          <t>enduring</t>
+        </is>
+      </c>
+      <c r="ADQ1" s="1" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="ADR1" s="1" t="inlineStr">
+        <is>
+          <t>emphasis</t>
+        </is>
+      </c>
+      <c r="ADS1" s="1" t="inlineStr">
+        <is>
+          <t>edness</t>
+        </is>
+      </c>
+      <c r="ADT1" s="1" t="inlineStr">
+        <is>
+          <t>divisible</t>
+        </is>
+      </c>
+      <c r="ADU1" s="1" t="inlineStr">
+        <is>
+          <t>disputes</t>
+        </is>
+      </c>
+      <c r="ADV1" s="1" t="inlineStr">
+        <is>
+          <t>deals</t>
+        </is>
+      </c>
+      <c r="ADW1" s="1" t="inlineStr">
+        <is>
+          <t>covers</t>
+        </is>
+      </c>
+      <c r="ADX1" s="1" t="inlineStr">
+        <is>
+          <t>contemporary</t>
+        </is>
+      </c>
+      <c r="ADY1" s="1" t="inlineStr">
+        <is>
+          <t>policies</t>
+        </is>
+      </c>
+      <c r="ADZ1" s="1" t="inlineStr">
+        <is>
+          <t>consecutive</t>
+        </is>
+      </c>
+      <c r="AEA1" s="1" t="inlineStr">
+        <is>
+          <t>compasses</t>
+        </is>
+      </c>
+      <c r="AEB1" s="1" t="inlineStr">
+        <is>
+          <t>commentary</t>
+        </is>
+      </c>
+      <c r="AEC1" s="1" t="inlineStr">
+        <is>
+          <t>call</t>
+        </is>
+      </c>
+      <c r="AED1" s="1" t="inlineStr">
+        <is>
+          <t>breeding</t>
+        </is>
+      </c>
+      <c r="AEE1" s="1" t="inlineStr">
+        <is>
+          <t>nature-nurture</t>
+        </is>
+      </c>
+      <c r="AEF1" s="1" t="inlineStr">
+        <is>
+          <t>tutoring</t>
+        </is>
+      </c>
+      <c r="AEG1" s="1" t="inlineStr">
+        <is>
+          <t>rate</t>
+        </is>
+      </c>
+      <c r="AEH1" s="1" t="inlineStr">
+        <is>
+          <t>explored</t>
+        </is>
+      </c>
+      <c r="AEI1" s="1" t="inlineStr">
+        <is>
+          <t>theories</t>
+        </is>
+      </c>
+      <c r="AEJ1" s="1" t="inlineStr">
+        <is>
+          <t>spans</t>
+        </is>
+      </c>
+      <c r="AEK1" s="1" t="inlineStr">
+        <is>
+          <t>sources</t>
+        </is>
+      </c>
+      <c r="AEL1" s="1" t="inlineStr">
+        <is>
+          <t>scientists</t>
+        </is>
+      </c>
+      <c r="AEM1" s="1" t="inlineStr">
+        <is>
+          <t>reviews</t>
+        </is>
+      </c>
+      <c r="AEN1" s="1" t="inlineStr">
+        <is>
+          <t>rapprochement</t>
+        </is>
+      </c>
+      <c r="AEO1" s="1" t="inlineStr">
+        <is>
+          <t>proponents</t>
+        </is>
+      </c>
+      <c r="AEP1" s="1" t="inlineStr">
+        <is>
+          <t>abitity</t>
+        </is>
+      </c>
+      <c r="AEQ1" s="1" t="inlineStr">
+        <is>
+          <t>promise</t>
+        </is>
+      </c>
+      <c r="AER1" s="1" t="inlineStr">
+        <is>
+          <t>clubs</t>
+        </is>
+      </c>
+      <c r="AES1" s="1" t="inlineStr">
+        <is>
+          <t>comes</t>
+        </is>
+      </c>
+      <c r="AET1" s="1" t="inlineStr">
+        <is>
+          <t>entry-level</t>
+        </is>
+      </c>
+      <c r="AEU1" s="1" t="inlineStr">
+        <is>
+          <t>examine</t>
+        </is>
+      </c>
+      <c r="AEV1" s="1" t="inlineStr">
+        <is>
+          <t>probable</t>
+        </is>
+      </c>
+      <c r="AEW1" s="1" t="inlineStr">
+        <is>
+          <t>exposure</t>
+        </is>
+      </c>
+      <c r="AEX1" s="1" t="inlineStr">
+        <is>
+          <t>nineteenth</t>
+        </is>
+      </c>
+      <c r="AEY1" s="1" t="inlineStr">
+        <is>
+          <t>primacy</t>
+        </is>
+      </c>
+      <c r="AEZ1" s="1" t="inlineStr">
+        <is>
+          <t>fast-paced</t>
+        </is>
+      </c>
+      <c r="AFA1" s="1" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="AFB1" s="1" t="inlineStr">
+        <is>
+          <t>physical</t>
+        </is>
+      </c>
+      <c r="AFC1" s="1" t="inlineStr">
+        <is>
+          <t>periods</t>
+        </is>
+      </c>
+      <c r="AFD1" s="1" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="AFE1" s="1" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="AFF1" s="1" t="inlineStr">
+        <is>
+          <t>origins</t>
+        </is>
+      </c>
+      <c r="AFG1" s="1" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="AFH1" s="1" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="AFI1" s="1" t="inlineStr">
+        <is>
+          <t>onset</t>
+        </is>
+      </c>
+      <c r="AFJ1" s="1" t="inlineStr">
+        <is>
+          <t>nineteenth-century</t>
+        </is>
+      </c>
+      <c r="AFK1" s="1" t="inlineStr">
+        <is>
+          <t>predict</t>
+        </is>
+      </c>
+      <c r="AFL1" s="1" t="inlineStr">
+        <is>
+          <t>predictable</t>
+        </is>
+      </c>
+      <c r="AFM1" s="1" t="inlineStr">
+        <is>
+          <t>bases</t>
+        </is>
+      </c>
+      <c r="AFN1" s="1" t="inlineStr">
+        <is>
+          <t>style</t>
+        </is>
+      </c>
+      <c r="AFO1" s="1" t="inlineStr">
+        <is>
+          <t>united</t>
+        </is>
+      </c>
+      <c r="AFP1" s="1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="AFQ1" s="1" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="AFR1" s="1" t="inlineStr">
+        <is>
+          <t>arose</t>
+        </is>
+      </c>
+      <c r="AFS1" s="1" t="inlineStr">
+        <is>
+          <t>argue</t>
+        </is>
+      </c>
+      <c r="AFT1" s="1" t="inlineStr">
+        <is>
+          <t>united-states</t>
+        </is>
+      </c>
+      <c r="AFU1" s="1" t="inlineStr">
+        <is>
+          <t>structures</t>
+        </is>
+      </c>
+      <c r="AFV1" s="1" t="inlineStr">
+        <is>
+          <t>'s</t>
+        </is>
+      </c>
+      <c r="AFW1" s="1" t="inlineStr">
+        <is>
+          <t>standards</t>
+        </is>
+      </c>
+      <c r="AFX1" s="1" t="inlineStr">
+        <is>
+          <t>reports</t>
+        </is>
+      </c>
+      <c r="AFY1" s="1" t="inlineStr">
+        <is>
+          <t>procedures</t>
+        </is>
+      </c>
+      <c r="AFZ1" s="1" t="inlineStr">
+        <is>
           <t>primary</t>
         </is>
       </c>
-      <c r="AAD1" s="1" t="inlineStr">
-        <is>
-          <t>1928</t>
-        </is>
-      </c>
-      <c r="AAE1" s="1" t="inlineStr">
-        <is>
-          <t>standards</t>
-        </is>
-      </c>
-      <c r="AAF1" s="1" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="AAG1" s="1" t="inlineStr">
-        <is>
-          <t>reports</t>
-        </is>
-      </c>
-      <c r="AAH1" s="1" t="inlineStr">
-        <is>
-          <t>incorporating</t>
-        </is>
-      </c>
-      <c r="AAI1" s="1" t="inlineStr">
-        <is>
-          <t>procedures</t>
-        </is>
-      </c>
-      <c r="AAJ1" s="1" t="inlineStr">
-        <is>
-          <t>populations</t>
-        </is>
-      </c>
-      <c r="AAK1" s="1" t="inlineStr">
-        <is>
-          <t>bases</t>
-        </is>
-      </c>
-      <c r="AAL1" s="1" t="inlineStr">
+      <c r="AGA1" s="1" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="AAM1" s="1" t="inlineStr">
-        <is>
-          <t>self-concept</t>
-        </is>
-      </c>
-      <c r="AAN1" s="1" t="inlineStr">
-        <is>
-          <t>argue</t>
-        </is>
-      </c>
-      <c r="AAO1" s="1" t="inlineStr">
-        <is>
-          <t>arose</t>
-        </is>
-      </c>
-      <c r="AAP1" s="1" t="inlineStr">
-        <is>
-          <t>attempts</t>
-        </is>
-      </c>
-      <c r="AAQ1" s="1" t="inlineStr">
-        <is>
-          <t>breeding</t>
-        </is>
-      </c>
-      <c r="AAR1" s="1" t="inlineStr">
-        <is>
-          <t>call</t>
-        </is>
-      </c>
-      <c r="AAS1" s="1" t="inlineStr">
-        <is>
-          <t>relatively</t>
-        </is>
-      </c>
-      <c r="AAT1" s="1" t="inlineStr">
-        <is>
-          <t>'s</t>
-        </is>
-      </c>
-      <c r="AAU1" s="1" t="inlineStr">
-        <is>
-          <t>lower</t>
-        </is>
-      </c>
-      <c r="AAV1" s="1" t="inlineStr">
-        <is>
-          <t>prestigious</t>
-        </is>
-      </c>
-      <c r="AAW1" s="1" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="AAX1" s="1" t="inlineStr">
-        <is>
-          <t>paternal</t>
-        </is>
-      </c>
-      <c r="AAY1" s="1" t="inlineStr">
-        <is>
-          <t>occupations</t>
-        </is>
-      </c>
-      <c r="AAZ1" s="1" t="inlineStr">
-        <is>
-          <t>self-esteem</t>
-        </is>
-      </c>
-      <c r="ABA1" s="1" t="inlineStr">
-        <is>
-          <t>there</t>
-        </is>
-      </c>
-      <c r="ABB1" s="1" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="ABC1" s="1" t="inlineStr">
-        <is>
-          <t>mature</t>
-        </is>
-      </c>
-      <c r="ABD1" s="1" t="inlineStr">
-        <is>
-          <t>who</t>
-        </is>
-      </c>
-      <c r="ABE1" s="1" t="inlineStr">
-        <is>
-          <t>structures</t>
-        </is>
-      </c>
-      <c r="ABF1" s="1" t="inlineStr">
-        <is>
-          <t>indicate</t>
-        </is>
-      </c>
-      <c r="ABG1" s="1" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="ABH1" s="1" t="inlineStr">
-        <is>
-          <t>united-states</t>
-        </is>
-      </c>
-      <c r="ABI1" s="1" t="inlineStr">
-        <is>
-          <t>united</t>
-        </is>
-      </c>
-      <c r="ABJ1" s="1" t="inlineStr">
-        <is>
-          <t>comes</t>
-        </is>
-      </c>
-      <c r="ABK1" s="1" t="inlineStr">
-        <is>
-          <t>generally</t>
-        </is>
-      </c>
-      <c r="ABL1" s="1" t="inlineStr">
-        <is>
-          <t>favorable</t>
-        </is>
-      </c>
-      <c r="ABM1" s="1" t="inlineStr">
-        <is>
-          <t>evidence</t>
-        </is>
-      </c>
-      <c r="ABN1" s="1" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
-      <c r="ABO1" s="1" t="inlineStr">
-        <is>
-          <t>clubs</t>
-        </is>
-      </c>
-      <c r="ABP1" s="1" t="inlineStr">
-        <is>
-          <t>validity</t>
-        </is>
-      </c>
-      <c r="ABQ1" s="1" t="inlineStr">
-        <is>
-          <t>control</t>
-        </is>
-      </c>
-      <c r="ABR1" s="1" t="inlineStr">
-        <is>
-          <t>dependent</t>
-        </is>
-      </c>
-      <c r="ABS1" s="1" t="inlineStr">
-        <is>
-          <t>discriminant</t>
-        </is>
-      </c>
-      <c r="ABT1" s="1" t="inlineStr">
-        <is>
-          <t>effort</t>
-        </is>
-      </c>
-      <c r="ABU1" s="1" t="inlineStr">
-        <is>
-          <t>entered</t>
-        </is>
-      </c>
-      <c r="ABV1" s="1" t="inlineStr">
-        <is>
-          <t>environmental</t>
-        </is>
-      </c>
-      <c r="ABW1" s="1" t="inlineStr">
-        <is>
-          <t>experimental</t>
-        </is>
-      </c>
-      <c r="ABX1" s="1" t="inlineStr">
-        <is>
-          <t>forty-eight</t>
-        </is>
-      </c>
-      <c r="ABY1" s="1" t="inlineStr">
-        <is>
-          <t>grades</t>
-        </is>
-      </c>
-      <c r="ABZ1" s="1" t="inlineStr">
-        <is>
-          <t>hierarchical</t>
-        </is>
-      </c>
-      <c r="ACA1" s="1" t="inlineStr">
-        <is>
-          <t>initiate</t>
-        </is>
-      </c>
-      <c r="ACB1" s="1" t="inlineStr">
-        <is>
-          <t>casting</t>
-        </is>
-      </c>
-      <c r="ACC1" s="1" t="inlineStr">
-        <is>
-          <t>major</t>
-        </is>
-      </c>
-      <c r="ACD1" s="1" t="inlineStr">
-        <is>
-          <t>bonuses</t>
-        </is>
-      </c>
-      <c r="ACE1" s="1" t="inlineStr">
-        <is>
-          <t>lessons</t>
-        </is>
-      </c>
-      <c r="ACF1" s="1" t="inlineStr">
-        <is>
-          <t>membership</t>
-        </is>
-      </c>
-      <c r="ACG1" s="1" t="inlineStr">
-        <is>
-          <t>organizing</t>
-        </is>
-      </c>
-      <c r="ACH1" s="1" t="inlineStr">
-        <is>
-          <t>parsonal</t>
-        </is>
-      </c>
-      <c r="ACI1" s="1" t="inlineStr">
-        <is>
-          <t>proved</t>
-        </is>
-      </c>
-      <c r="ACJ1" s="1" t="inlineStr">
-        <is>
-          <t>received</t>
-        </is>
-      </c>
-      <c r="ACK1" s="1" t="inlineStr">
-        <is>
-          <t>self-efficacy</t>
-        </is>
-      </c>
-      <c r="ACL1" s="1" t="inlineStr">
-        <is>
-          <t>seven</t>
-        </is>
-      </c>
-      <c r="ACM1" s="1" t="inlineStr">
-        <is>
-          <t>sex</t>
-        </is>
-      </c>
-      <c r="ACN1" s="1" t="inlineStr">
-        <is>
-          <t>strength</t>
-        </is>
-      </c>
-      <c r="ACO1" s="1" t="inlineStr">
-        <is>
-          <t>style</t>
-        </is>
-      </c>
-      <c r="ACP1" s="1" t="inlineStr">
-        <is>
-          <t>lagged</t>
-        </is>
-      </c>
-      <c r="ACQ1" s="1" t="inlineStr">
-        <is>
-          <t>decisions</t>
-        </is>
-      </c>
-      <c r="ACR1" s="1" t="inlineStr">
-        <is>
-          <t>beyond</t>
-        </is>
-      </c>
-      <c r="ACS1" s="1" t="inlineStr">
-        <is>
-          <t>utility</t>
-        </is>
-      </c>
-      <c r="ACT1" s="1" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="ACU1" s="1" t="inlineStr">
-        <is>
-          <t>policies</t>
-        </is>
-      </c>
-      <c r="ACV1" s="1" t="inlineStr">
-        <is>
-          <t>pluralism</t>
-        </is>
-      </c>
-      <c r="ACW1" s="1" t="inlineStr">
-        <is>
-          <t>orientation</t>
-        </is>
-      </c>
-      <c r="ACX1" s="1" t="inlineStr">
-        <is>
-          <t>interventions</t>
-        </is>
-      </c>
-      <c r="ACY1" s="1" t="inlineStr">
-        <is>
-          <t>trend</t>
-        </is>
-      </c>
-      <c r="ACZ1" s="1" t="inlineStr">
-        <is>
-          <t>enjoy</t>
-        </is>
-      </c>
-      <c r="ADA1" s="1" t="inlineStr">
-        <is>
-          <t>strongly</t>
-        </is>
-      </c>
-      <c r="ADB1" s="1" t="inlineStr">
-        <is>
-          <t>serious</t>
-        </is>
-      </c>
-      <c r="ADC1" s="1" t="inlineStr">
-        <is>
-          <t>race</t>
-        </is>
-      </c>
-      <c r="ADD1" s="1" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="ADE1" s="1" t="inlineStr">
-        <is>
-          <t>necessarily</t>
-        </is>
-      </c>
-      <c r="ADF1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="ADG1" s="1" t="inlineStr">
-        <is>
-          <t>marginal</t>
-        </is>
-      </c>
-      <c r="ADH1" s="1" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="ADI1" s="1" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="ADJ1" s="1" t="inlineStr">
-        <is>
-          <t>interpreted</t>
-        </is>
-      </c>
-      <c r="ADK1" s="1" t="inlineStr">
-        <is>
-          <t>gave</t>
-        </is>
-      </c>
-      <c r="ADL1" s="1" t="inlineStr">
-        <is>
-          <t>answers</t>
-        </is>
-      </c>
-      <c r="ADM1" s="1" t="inlineStr">
-        <is>
-          <t>doubt</t>
-        </is>
-      </c>
-      <c r="ADN1" s="1" t="inlineStr">
-        <is>
-          <t>depends</t>
-        </is>
-      </c>
-      <c r="ADO1" s="1" t="inlineStr">
-        <is>
-          <t>correct</t>
-        </is>
-      </c>
-      <c r="ADP1" s="1" t="inlineStr">
-        <is>
-          <t>coding</t>
-        </is>
-      </c>
-      <c r="ADQ1" s="1" t="inlineStr">
-        <is>
-          <t>clinic</t>
-        </is>
-      </c>
-      <c r="ADR1" s="1" t="inlineStr">
-        <is>
-          <t>3-8</t>
-        </is>
-      </c>
-      <c r="ADS1" s="1" t="inlineStr">
-        <is>
-          <t>515</t>
-        </is>
-      </c>
-      <c r="ADT1" s="1" t="inlineStr">
-        <is>
-          <t>swift</t>
-        </is>
-      </c>
-      <c r="ADU1" s="1" t="inlineStr">
-        <is>
-          <t>average-scoring</t>
-        </is>
-      </c>
-      <c r="ADV1" s="1" t="inlineStr">
-        <is>
-          <t>commentary</t>
-        </is>
-      </c>
-      <c r="ADW1" s="1" t="inlineStr">
-        <is>
-          <t>addressing</t>
-        </is>
-      </c>
-      <c r="ADX1" s="1" t="inlineStr">
-        <is>
-          <t>nineteenth-century</t>
-        </is>
-      </c>
-      <c r="ADY1" s="1" t="inlineStr">
-        <is>
-          <t>block</t>
-        </is>
-      </c>
-      <c r="ADZ1" s="1" t="inlineStr">
-        <is>
-          <t>yearbook</t>
-        </is>
-      </c>
-      <c r="AEA1" s="1" t="inlineStr">
-        <is>
-          <t>nineteenth</t>
-        </is>
-      </c>
-      <c r="AEB1" s="1" t="inlineStr">
-        <is>
-          <t>anxious</t>
-        </is>
-      </c>
-      <c r="AEC1" s="1" t="inlineStr">
-        <is>
-          <t>adjustment</t>
-        </is>
-      </c>
-      <c r="AED1" s="1" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="AEE1" s="1" t="inlineStr">
-        <is>
-          <t>whereas</t>
-        </is>
-      </c>
-      <c r="AEF1" s="1" t="inlineStr">
-        <is>
-          <t>nature-nurture</t>
-        </is>
-      </c>
-      <c r="AEG1" s="1" t="inlineStr">
-        <is>
-          <t>others</t>
-        </is>
-      </c>
-      <c r="AEH1" s="1" t="inlineStr">
-        <is>
-          <t>tutoring</t>
-        </is>
-      </c>
-      <c r="AEI1" s="1" t="inlineStr">
-        <is>
-          <t>these</t>
-        </is>
-      </c>
-      <c r="AEJ1" s="1" t="inlineStr">
-        <is>
-          <t>rate</t>
-        </is>
-      </c>
-      <c r="AEK1" s="1" t="inlineStr">
-        <is>
-          <t>mental</t>
-        </is>
-      </c>
-      <c r="AEL1" s="1" t="inlineStr">
-        <is>
-          <t>behind</t>
-        </is>
-      </c>
-      <c r="AEM1" s="1" t="inlineStr">
-        <is>
-          <t>predictable</t>
-        </is>
-      </c>
-      <c r="AEN1" s="1" t="inlineStr">
-        <is>
-          <t>predict</t>
-        </is>
-      </c>
-      <c r="AEO1" s="1" t="inlineStr">
-        <is>
-          <t>approaches</t>
-        </is>
-      </c>
-      <c r="AEP1" s="1" t="inlineStr">
+      <c r="AGB1" s="1" t="inlineStr">
         <is>
           <t>twentieth</t>
         </is>
       </c>
-      <c r="AEQ1" s="1" t="inlineStr">
-        <is>
-          <t>capable</t>
-        </is>
-      </c>
-      <c r="AER1" s="1" t="inlineStr">
-        <is>
-          <t>considerations</t>
-        </is>
-      </c>
-      <c r="AES1" s="1" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="AET1" s="1" t="inlineStr">
-        <is>
-          <t>periods</t>
-        </is>
-      </c>
-      <c r="AEU1" s="1" t="inlineStr">
-        <is>
-          <t>compasses</t>
-        </is>
-      </c>
-      <c r="AEV1" s="1" t="inlineStr">
-        <is>
-          <t>origins</t>
-        </is>
-      </c>
-      <c r="AEW1" s="1" t="inlineStr">
-        <is>
-          <t>physical</t>
-        </is>
-      </c>
-      <c r="AEX1" s="1" t="inlineStr">
-        <is>
-          <t>primacy</t>
-        </is>
-      </c>
-      <c r="AEY1" s="1" t="inlineStr">
-        <is>
-          <t>probable</t>
-        </is>
-      </c>
-      <c r="AEZ1" s="1" t="inlineStr">
-        <is>
-          <t>promise</t>
-        </is>
-      </c>
-      <c r="AFA1" s="1" t="inlineStr">
-        <is>
-          <t>proponents</t>
-        </is>
-      </c>
-      <c r="AFB1" s="1" t="inlineStr">
-        <is>
-          <t>rapprochement</t>
-        </is>
-      </c>
-      <c r="AFC1" s="1" t="inlineStr">
-        <is>
-          <t>reviews</t>
-        </is>
-      </c>
-      <c r="AFD1" s="1" t="inlineStr">
-        <is>
-          <t>scientists</t>
-        </is>
-      </c>
-      <c r="AFE1" s="1" t="inlineStr">
-        <is>
-          <t>sources</t>
-        </is>
-      </c>
-      <c r="AFF1" s="1" t="inlineStr">
-        <is>
-          <t>onset</t>
-        </is>
-      </c>
-      <c r="AFG1" s="1" t="inlineStr">
-        <is>
-          <t>spans</t>
-        </is>
-      </c>
-      <c r="AFH1" s="1" t="inlineStr">
-        <is>
-          <t>theories</t>
-        </is>
-      </c>
-      <c r="AFI1" s="1" t="inlineStr">
-        <is>
-          <t>culturally</t>
-        </is>
-      </c>
-      <c r="AFJ1" s="1" t="inlineStr">
-        <is>
-          <t>consistently</t>
-        </is>
-      </c>
-      <c r="AFK1" s="1" t="inlineStr">
-        <is>
-          <t>assess</t>
-        </is>
-      </c>
-      <c r="AFL1" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AFM1" s="1" t="inlineStr">
-        <is>
-          <t>math</t>
-        </is>
-      </c>
-      <c r="AFN1" s="1" t="inlineStr">
-        <is>
-          <t>edness</t>
-        </is>
-      </c>
-      <c r="AFO1" s="1" t="inlineStr">
-        <is>
-          <t>founding</t>
-        </is>
-      </c>
-      <c r="AFP1" s="1" t="inlineStr">
-        <is>
-          <t>flowering</t>
-        </is>
-      </c>
-      <c r="AFQ1" s="1" t="inlineStr">
-        <is>
-          <t>equity</t>
-        </is>
-      </c>
-      <c r="AFR1" s="1" t="inlineStr">
-        <is>
-          <t>eugenics</t>
-        </is>
-      </c>
-      <c r="AFS1" s="1" t="inlineStr">
-        <is>
-          <t>enduring</t>
-        </is>
-      </c>
-      <c r="AFT1" s="1" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="AFU1" s="1" t="inlineStr">
-        <is>
-          <t>emphasis</t>
-        </is>
-      </c>
-      <c r="AFV1" s="1" t="inlineStr">
-        <is>
-          <t>comparable</t>
-        </is>
-      </c>
-      <c r="AFW1" s="1" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="AFX1" s="1" t="inlineStr">
-        <is>
-          <t>francesgalton</t>
-        </is>
-      </c>
-      <c r="AFY1" s="1" t="inlineStr">
-        <is>
-          <t>during</t>
-        </is>
-      </c>
-      <c r="AFZ1" s="1" t="inlineStr">
-        <is>
-          <t>divisible</t>
-        </is>
-      </c>
-      <c r="AGA1" s="1" t="inlineStr">
-        <is>
-          <t>disputes</t>
-        </is>
-      </c>
-      <c r="AGB1" s="1" t="inlineStr">
-        <is>
-          <t>deals</t>
-        </is>
-      </c>
       <c r="AGC1" s="1" t="inlineStr">
         <is>
-          <t>distinguished</t>
+          <t>misled</t>
         </is>
       </c>
       <c r="AGD1" s="1" t="inlineStr">
         <is>
-          <t>covers</t>
+          <t>ing</t>
         </is>
       </c>
       <c r="AGE1" s="1" t="inlineStr">
         <is>
-          <t>consecutive</t>
+          <t>iqs</t>
         </is>
       </c>
       <c r="AGF1" s="1" t="inlineStr">
         <is>
-          <t>contemporary</t>
+          <t>larger</t>
         </is>
       </c>
       <c r="AGG1" s="1" t="inlineStr">
         <is>
-          <t>diverse</t>
+          <t>lend</t>
         </is>
       </c>
       <c r="AGH1" s="1" t="inlineStr">
         <is>
-          <t>events</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AGI1" s="1" t="inlineStr">
         <is>
-          <t>gift</t>
+          <t>124+</t>
         </is>
       </c>
       <c r="AGJ1" s="1" t="inlineStr">
         <is>
-          <t>karl</t>
+          <t>show</t>
         </is>
       </c>
       <c r="AGK1" s="1" t="inlineStr">
         <is>
-          <t>individual</t>
+          <t>occurrence</t>
         </is>
       </c>
       <c r="AGL1" s="1" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>overestimate</t>
         </is>
       </c>
       <c r="AGM1" s="1" t="inlineStr">
         <is>
-          <t>fast-paced</t>
+          <t>provided</t>
         </is>
       </c>
       <c r="AGN1" s="1" t="inlineStr">
         <is>
-          <t>abitity</t>
+          <t>rules</t>
         </is>
       </c>
       <c r="AGO1" s="1" t="inlineStr">
         <is>
-          <t>mainly</t>
+          <t>greatly</t>
         </is>
       </c>
       <c r="AGP1" s="1" t="inlineStr">
         <is>
-          <t>heredity</t>
+          <t>specialized</t>
         </is>
       </c>
       <c r="AGQ1" s="1" t="inlineStr">
         <is>
-          <t>late</t>
+          <t>table</t>
         </is>
       </c>
       <c r="AGR1" s="1" t="inlineStr">
         <is>
-          <t>exposure</t>
+          <t>warnings</t>
         </is>
       </c>
       <c r="AGS1" s="1" t="inlineStr">
         <is>
-          <t>intellect</t>
+          <t>wisc</t>
         </is>
       </c>
       <c r="AGT1" s="1" t="inlineStr">
         <is>
-          <t>explored</t>
+          <t>half</t>
         </is>
       </c>
       <c r="AGU1" s="1" t="inlineStr">
         <is>
-          <t>inspired</t>
+          <t>cognitively</t>
         </is>
       </c>
       <c r="AGV1" s="1" t="inlineStr">
         <is>
-          <t>examine</t>
+          <t>frequency</t>
         </is>
       </c>
       <c r="AGW1" s="1" t="inlineStr">
         <is>
-          <t>entry-level</t>
+          <t>commonly</t>
         </is>
       </c>
       <c r="AGX1" s="1" t="inlineStr">
         <is>
-          <t>influence</t>
+          <t>forms</t>
         </is>
       </c>
       <c r="AGY1" s="1" t="inlineStr">
         <is>
-          <t>historical</t>
+          <t>exist</t>
         </is>
       </c>
       <c r="AGZ1" s="1" t="inlineStr">
         <is>
+          <t>excluding</t>
+        </is>
+      </c>
+      <c r="AHA1" s="1" t="inlineStr">
+        <is>
+          <t>frequen</t>
+        </is>
+      </c>
+      <c r="AHB1" s="1" t="inlineStr">
+        <is>
+          <t>differ</t>
+        </is>
+      </c>
+      <c r="AHC1" s="1" t="inlineStr">
+        <is>
+          <t>developmental</t>
+        </is>
+      </c>
+      <c r="AHD1" s="1" t="inlineStr">
+        <is>
+          <t>consistent</t>
+        </is>
+      </c>
+      <c r="AHE1" s="1" t="inlineStr">
+        <is>
+          <t>clinicians</t>
+        </is>
+      </c>
+      <c r="AHF1" s="1" t="inlineStr">
+        <is>
+          <t>gerieral</t>
+        </is>
+      </c>
+      <c r="AHG1" s="1" t="inlineStr">
+        <is>
+          <t>appeared</t>
+        </is>
+      </c>
+      <c r="AHH1" s="1" t="inlineStr">
+        <is>
+          <t>13-year-olds</t>
+        </is>
+      </c>
+      <c r="AHI1" s="1" t="inlineStr">
+        <is>
+          <t>adverse</t>
+        </is>
+      </c>
+      <c r="AHJ1" s="1" t="inlineStr">
+        <is>
+          <t>administration</t>
+        </is>
+      </c>
+      <c r="AHK1" s="1" t="inlineStr">
+        <is>
+          <t>administering</t>
+        </is>
+      </c>
+      <c r="AHL1" s="1" t="inlineStr">
+        <is>
+          <t>accurate</t>
+        </is>
+      </c>
+      <c r="AHM1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="AHN1" s="1" t="inlineStr">
+        <is>
+          <t>gagne</t>
+        </is>
+      </c>
+      <c r="AHO1" s="1" t="inlineStr">
+        <is>
+          <t>distinct</t>
+        </is>
+      </c>
+      <c r="AHP1" s="1" t="inlineStr">
+        <is>
+          <t>mathematical</t>
+        </is>
+      </c>
+      <c r="AHQ1" s="1" t="inlineStr">
+        <is>
+          <t>effect</t>
+        </is>
+      </c>
+      <c r="AHR1" s="1" t="inlineStr">
+        <is>
+          <t>moreover</t>
+        </is>
+      </c>
+      <c r="AHS1" s="1" t="inlineStr">
+        <is>
+          <t>determin</t>
+        </is>
+      </c>
+      <c r="AHT1" s="1" t="inlineStr">
+        <is>
           <t>cy</t>
         </is>
       </c>
-      <c r="AHA1" s="1" t="inlineStr">
+      <c r="AHU1" s="1" t="inlineStr">
+        <is>
+          <t>paths</t>
+        </is>
+      </c>
+      <c r="AHV1" s="1" t="inlineStr">
+        <is>
+          <t>seem</t>
+        </is>
+      </c>
+      <c r="AHW1" s="1" t="inlineStr">
+        <is>
+          <t>spatial/speed</t>
+        </is>
+      </c>
+      <c r="AHX1" s="1" t="inlineStr">
         <is>
           <t>specific</t>
         </is>
       </c>
-      <c r="AHB1" s="1" t="inlineStr">
-        <is>
-          <t>such</t>
-        </is>
-      </c>
-      <c r="AHC1" s="1" t="inlineStr">
-        <is>
-          <t>gagne</t>
-        </is>
-      </c>
-      <c r="AHD1" s="1" t="inlineStr">
-        <is>
-          <t>spatial/speed</t>
-        </is>
-      </c>
-      <c r="AHE1" s="1" t="inlineStr">
-        <is>
-          <t>seem</t>
-        </is>
-      </c>
-      <c r="AHF1" s="1" t="inlineStr">
-        <is>
-          <t>effect</t>
-        </is>
-      </c>
-      <c r="AHG1" s="1" t="inlineStr">
-        <is>
-          <t>determin</t>
-        </is>
-      </c>
-      <c r="AHH1" s="1" t="inlineStr">
-        <is>
-          <t>paths</t>
-        </is>
-      </c>
-      <c r="AHI1" s="1" t="inlineStr">
-        <is>
-          <t>moreover</t>
-        </is>
-      </c>
-      <c r="AHJ1" s="1" t="inlineStr">
-        <is>
-          <t>mathematical</t>
-        </is>
-      </c>
-      <c r="AHK1" s="1" t="inlineStr">
-        <is>
-          <t>gerieral</t>
-        </is>
-      </c>
-      <c r="AHL1" s="1" t="inlineStr">
-        <is>
-          <t>clinicians</t>
-        </is>
-      </c>
-      <c r="AHM1" s="1" t="inlineStr">
+      <c r="AHY1" s="1" t="inlineStr">
         <is>
           <t>yielded</t>
         </is>
       </c>
-      <c r="AHN1" s="1" t="inlineStr">
-        <is>
-          <t>sciences</t>
-        </is>
-      </c>
-      <c r="AHO1" s="1" t="inlineStr">
-        <is>
-          <t>primarily</t>
-        </is>
-      </c>
-      <c r="AHP1" s="1" t="inlineStr">
-        <is>
-          <t>adverse</t>
-        </is>
-      </c>
-      <c r="AHQ1" s="1" t="inlineStr">
-        <is>
-          <t>administration</t>
-        </is>
-      </c>
-      <c r="AHR1" s="1" t="inlineStr">
-        <is>
-          <t>administering</t>
-        </is>
-      </c>
-      <c r="AHS1" s="1" t="inlineStr">
-        <is>
-          <t>accurate</t>
-        </is>
-      </c>
-      <c r="AHT1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="AHU1" s="1" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="AHV1" s="1" t="inlineStr">
-        <is>
-          <t>qualitative</t>
-        </is>
-      </c>
-      <c r="AHW1" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AHX1" s="1" t="inlineStr">
-        <is>
-          <t>124+</t>
-        </is>
-      </c>
-      <c r="AHY1" s="1" t="inlineStr">
-        <is>
-          <t>recent</t>
-        </is>
-      </c>
       <c r="AHZ1" s="1" t="inlineStr">
         <is>
-          <t>sciences—the</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="AIA1" s="1" t="inlineStr">
         <is>
-          <t>exist</t>
+          <t>year-olds</t>
         </is>
       </c>
       <c r="AIB1" s="1" t="inlineStr">
         <is>
-          <t>sketch</t>
+          <t>virtually</t>
         </is>
       </c>
       <c r="AIC1" s="1" t="inlineStr">
         <is>
-          <t>forms</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AID1" s="1" t="inlineStr">
         <is>
-          <t>methodological</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AIE1" s="1" t="inlineStr">
         <is>
-          <t>excluding</t>
+          <t>adept</t>
         </is>
       </c>
       <c r="AIF1" s="1" t="inlineStr">
         <is>
-          <t>finally</t>
+          <t>affected</t>
         </is>
       </c>
       <c r="AIG1" s="1" t="inlineStr">
         <is>
-          <t>emerging</t>
+          <t>aspects</t>
         </is>
       </c>
       <c r="AIH1" s="1" t="inlineStr">
         <is>
-          <t>embraced</t>
+          <t>popularity</t>
         </is>
       </c>
       <c r="AII1" s="1" t="inlineStr">
         <is>
-          <t>misled</t>
+          <t>athletic</t>
         </is>
       </c>
       <c r="AIJ1" s="1" t="inlineStr">
         <is>
-          <t>occurrence</t>
+          <t>considered</t>
         </is>
       </c>
       <c r="AIK1" s="1" t="inlineStr">
         <is>
-          <t>drawing</t>
+          <t>uninhibited</t>
         </is>
       </c>
       <c r="AIL1" s="1" t="inlineStr">
         <is>
-          <t>delineate</t>
+          <t>developing</t>
         </is>
       </c>
       <c r="AIM1" s="1" t="inlineStr">
         <is>
-          <t>consider</t>
+          <t>discover</t>
         </is>
       </c>
       <c r="AIN1" s="1" t="inlineStr">
         <is>
-          <t>beliefs</t>
+          <t>emotional</t>
         </is>
       </c>
       <c r="AIO1" s="1" t="inlineStr">
         <is>
-          <t>distinct</t>
+          <t>type</t>
         </is>
       </c>
       <c r="AIP1" s="1" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>exceeded</t>
         </is>
       </c>
       <c r="AIQ1" s="1" t="inlineStr">
         <is>
-          <t>overestimate</t>
+          <t>exceptionally</t>
         </is>
       </c>
       <c r="AIR1" s="1" t="inlineStr">
         <is>
-          <t>provided</t>
+          <t>extroverted</t>
         </is>
       </c>
       <c r="AIS1" s="1" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>standing</t>
         </is>
       </c>
       <c r="AIT1" s="1" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>importance</t>
         </is>
       </c>
       <c r="AIU1" s="1" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>socially</t>
         </is>
       </c>
       <c r="AIV1" s="1" t="inlineStr">
         <is>
-          <t>rules</t>
+          <t>similar</t>
         </is>
       </c>
       <c r="AIW1" s="1" t="inlineStr">
         <is>
-          <t>applications</t>
+          <t>verbatly</t>
         </is>
       </c>
       <c r="AIX1" s="1" t="inlineStr">
         <is>
-          <t>show</t>
+          <t>random</t>
         </is>
       </c>
       <c r="AIY1" s="1" t="inlineStr">
         <is>
-          <t>specialized</t>
+          <t>topical</t>
         </is>
       </c>
       <c r="AIZ1" s="1" t="inlineStr">
         <is>
-          <t>table</t>
+          <t>title</t>
         </is>
       </c>
       <c r="AJA1" s="1" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="AJB1" s="1" t="inlineStr">
         <is>
-          <t>warnings</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="AJC1" s="1" t="inlineStr">
         <is>
-          <t>wisc</t>
+          <t>500</t>
         </is>
       </c>
       <c r="AJD1" s="1" t="inlineStr">
         <is>
-          <t>exclusively</t>
+          <t>abstracts</t>
         </is>
       </c>
       <c r="AJE1" s="1" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>base</t>
         </is>
       </c>
       <c r="AJF1" s="1" t="inlineStr">
         <is>
-          <t>heavily</t>
+          <t>chosen</t>
         </is>
       </c>
       <c r="AJG1" s="1" t="inlineStr">
         <is>
-          <t>so-called</t>
+          <t>comparison</t>
         </is>
       </c>
       <c r="AJH1" s="1" t="inlineStr">
         <is>
-          <t>differ</t>
+          <t>comparisons</t>
         </is>
       </c>
       <c r="AJI1" s="1" t="inlineStr">
         <is>
-          <t>developmental</t>
+          <t>descriptor</t>
         </is>
       </c>
       <c r="AJJ1" s="1" t="inlineStr">
         <is>
-          <t>consistent</t>
+          <t>designs</t>
         </is>
       </c>
       <c r="AJK1" s="1" t="inlineStr">
         <is>
-          <t>commonly</t>
+          <t>discipline</t>
         </is>
       </c>
       <c r="AJL1" s="1" t="inlineStr">
         <is>
-          <t>cognitively</t>
+          <t>disciplines</t>
         </is>
       </c>
       <c r="AJM1" s="1" t="inlineStr">
         <is>
-          <t>appeared</t>
+          <t>eric</t>
         </is>
       </c>
       <c r="AJN1" s="1" t="inlineStr">
         <is>
-          <t>13-year-olds</t>
+          <t>genius</t>
         </is>
       </c>
       <c r="AJO1" s="1" t="inlineStr">
         <is>
-          <t>frequen</t>
+          <t>indexed</t>
         </is>
       </c>
       <c r="AJP1" s="1" t="inlineStr">
         <is>
-          <t>frequency</t>
+          <t>lack</t>
         </is>
       </c>
       <c r="AJQ1" s="1" t="inlineStr">
         <is>
-          <t>underlying</t>
+          <t>much</t>
         </is>
       </c>
       <c r="AJR1" s="1" t="inlineStr">
         <is>
-          <t>greatly</t>
+          <t>must</t>
         </is>
       </c>
       <c r="AJS1" s="1" t="inlineStr">
         <is>
-          <t>outlines</t>
+          <t>psychological</t>
         </is>
       </c>
       <c r="AJT1" s="1" t="inlineStr">
         <is>
-          <t>phillips</t>
+          <t>psychological/</t>
         </is>
       </c>
       <c r="AJU1" s="1" t="inlineStr">
         <is>
-          <t>ing</t>
+          <t>published</t>
         </is>
       </c>
       <c r="AJV1" s="1" t="inlineStr">
         <is>
-          <t>lend</t>
+          <t>qualify</t>
         </is>
       </c>
       <c r="AJW1" s="1" t="inlineStr">
         <is>
-          <t>natural</t>
+          <t>researchers</t>
         </is>
       </c>
       <c r="AJX1" s="1" t="inlineStr">
         <is>
-          <t>larger</t>
+          <t>reviewed</t>
         </is>
       </c>
       <c r="AJY1" s="1" t="inlineStr">
         <is>
-          <t>iqs</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="AJZ1" s="1" t="inlineStr">
         <is>
-          <t>investigators</t>
+          <t>separate</t>
         </is>
       </c>
       <c r="AKA1" s="1" t="inlineStr">
         <is>
-          <t>logically</t>
+          <t>set</t>
         </is>
       </c>
       <c r="AKB1" s="1" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>since</t>
         </is>
       </c>
       <c r="AKC1" s="1" t="inlineStr">
         <is>
-          <t>half</t>
+          <t>sophisticated</t>
         </is>
       </c>
       <c r="AKD1" s="1" t="inlineStr">
         <is>
-          <t>year-olds</t>
-        </is>
-      </c>
-      <c r="AKE1" s="1" t="inlineStr">
-        <is>
-          <t>affected</t>
-        </is>
-      </c>
-      <c r="AKF1" s="1" t="inlineStr">
-        <is>
-          <t>adept</t>
-        </is>
-      </c>
-      <c r="AKG1" s="1" t="inlineStr">
-        <is>
-          <t>standing</t>
-        </is>
-      </c>
-      <c r="AKH1" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AKI1" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AKJ1" s="1" t="inlineStr">
-        <is>
-          <t>aspects</t>
-        </is>
-      </c>
-      <c r="AKK1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="AKL1" s="1" t="inlineStr">
-        <is>
-          <t>athletic</t>
-        </is>
-      </c>
-      <c r="AKM1" s="1" t="inlineStr">
-        <is>
-          <t>socially</t>
-        </is>
-      </c>
-      <c r="AKN1" s="1" t="inlineStr">
-        <is>
-          <t>considered</t>
-        </is>
-      </c>
-      <c r="AKO1" s="1" t="inlineStr">
-        <is>
-          <t>developing</t>
-        </is>
-      </c>
-      <c r="AKP1" s="1" t="inlineStr">
-        <is>
-          <t>discover</t>
-        </is>
-      </c>
-      <c r="AKQ1" s="1" t="inlineStr">
-        <is>
-          <t>emotional</t>
-        </is>
-      </c>
-      <c r="AKR1" s="1" t="inlineStr">
-        <is>
-          <t>exceeded</t>
-        </is>
-      </c>
-      <c r="AKS1" s="1" t="inlineStr">
-        <is>
-          <t>exceptionally</t>
-        </is>
-      </c>
-      <c r="AKT1" s="1" t="inlineStr">
-        <is>
-          <t>verbatly</t>
-        </is>
-      </c>
-      <c r="AKU1" s="1" t="inlineStr">
-        <is>
-          <t>extroverted</t>
-        </is>
-      </c>
-      <c r="AKV1" s="1" t="inlineStr">
-        <is>
-          <t>uninhibited</t>
-        </is>
-      </c>
-      <c r="AKW1" s="1" t="inlineStr">
-        <is>
-          <t>importance</t>
-        </is>
-      </c>
-      <c r="AKX1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="AKY1" s="1" t="inlineStr">
-        <is>
-          <t>popularity</t>
-        </is>
-      </c>
-      <c r="AKZ1" s="1" t="inlineStr">
-        <is>
-          <t>similar</t>
-        </is>
-      </c>
-      <c r="ALA1" s="1" t="inlineStr">
-        <is>
-          <t>virtually</t>
-        </is>
-      </c>
-      <c r="ALB1" s="1" t="inlineStr">
-        <is>
-          <t>qualify</t>
-        </is>
-      </c>
-      <c r="ALC1" s="1" t="inlineStr">
-        <is>
-          <t>topical</t>
-        </is>
-      </c>
-      <c r="ALD1" s="1" t="inlineStr">
-        <is>
-          <t>indexed</t>
-        </is>
-      </c>
-      <c r="ALE1" s="1" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="ALF1" s="1" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="ALG1" s="1" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="ALH1" s="1" t="inlineStr">
-        <is>
-          <t>abstracts</t>
-        </is>
-      </c>
-      <c r="ALI1" s="1" t="inlineStr">
-        <is>
-          <t>base</t>
-        </is>
-      </c>
-      <c r="ALJ1" s="1" t="inlineStr">
-        <is>
-          <t>chosen</t>
-        </is>
-      </c>
-      <c r="ALK1" s="1" t="inlineStr">
-        <is>
-          <t>comparison</t>
-        </is>
-      </c>
-      <c r="ALL1" s="1" t="inlineStr">
-        <is>
-          <t>comparisons</t>
-        </is>
-      </c>
-      <c r="ALM1" s="1" t="inlineStr">
-        <is>
-          <t>descriptor</t>
-        </is>
-      </c>
-      <c r="ALN1" s="1" t="inlineStr">
-        <is>
-          <t>discipline</t>
-        </is>
-      </c>
-      <c r="ALO1" s="1" t="inlineStr">
-        <is>
-          <t>disciplines</t>
-        </is>
-      </c>
-      <c r="ALP1" s="1" t="inlineStr">
-        <is>
-          <t>eric</t>
-        </is>
-      </c>
-      <c r="ALQ1" s="1" t="inlineStr">
-        <is>
           <t>furthermore</t>
-        </is>
-      </c>
-      <c r="ALR1" s="1" t="inlineStr">
-        <is>
-          <t>genius</t>
-        </is>
-      </c>
-      <c r="ALS1" s="1" t="inlineStr">
-        <is>
-          <t>lack</t>
-        </is>
-      </c>
-      <c r="ALT1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="ALU1" s="1" t="inlineStr">
-        <is>
-          <t>much</t>
-        </is>
-      </c>
-      <c r="ALV1" s="1" t="inlineStr">
-        <is>
-          <t>must</t>
-        </is>
-      </c>
-      <c r="ALW1" s="1" t="inlineStr">
-        <is>
-          <t>over</t>
-        </is>
-      </c>
-      <c r="ALX1" s="1" t="inlineStr">
-        <is>
-          <t>psychological</t>
-        </is>
-      </c>
-      <c r="ALY1" s="1" t="inlineStr">
-        <is>
-          <t>psychological/</t>
-        </is>
-      </c>
-      <c r="ALZ1" s="1" t="inlineStr">
-        <is>
-          <t>published</t>
-        </is>
-      </c>
-      <c r="AMA1" s="1" t="inlineStr">
-        <is>
-          <t>random</t>
-        </is>
-      </c>
-      <c r="AMB1" s="1" t="inlineStr">
-        <is>
-          <t>researchers</t>
-        </is>
-      </c>
-      <c r="AMC1" s="1" t="inlineStr">
-        <is>
-          <t>reviewed</t>
-        </is>
-      </c>
-      <c r="AMD1" s="1" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="AME1" s="1" t="inlineStr">
-        <is>
-          <t>separate</t>
-        </is>
-      </c>
-      <c r="AMF1" s="1" t="inlineStr">
-        <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="AMG1" s="1" t="inlineStr">
-        <is>
-          <t>since</t>
-        </is>
-      </c>
-      <c r="AMH1" s="1" t="inlineStr">
-        <is>
-          <t>sophisticated</t>
-        </is>
-      </c>
-      <c r="AMI1" s="1" t="inlineStr">
-        <is>
-          <t>designs</t>
         </is>
       </c>
     </row>
@@ -5557,103 +5272,103 @@
         <v>1990</v>
       </c>
       <c r="D2" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="E2" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="F2" t="n">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.49</v>
+        <v>1.31</v>
       </c>
       <c r="H2" t="n">
-        <v>1.22</v>
+        <v>1.07</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9800000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9600000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9600000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9500000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="M2" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.9099999999999999</v>
       </c>
-      <c r="N2" t="n">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="O2" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="P2" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.8300000000000001</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0.8</v>
-      </c>
       <c r="R2" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="T2" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="U2" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="W2" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="X2" t="n">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.76</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.7</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.63</v>
+        <v>0.6200000000000001</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.6200000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.62</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AK2" t="n">
         <v>0.6</v>
@@ -5662,40 +5377,40 @@
         <v>0.6</v>
       </c>
       <c r="AM2" t="n">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AO2" t="n">
         <v>0.5800000000000001</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AP2" t="n">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AT2" t="n">
         <v>0.5700000000000001</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AU2" t="n">
         <v>0.5700000000000001</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AV2" t="n">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="AW2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AX2" t="n">
         <v>0.5600000000000001</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.55</v>
       </c>
       <c r="AY2" t="n">
         <v>0.55</v>
@@ -5707,7 +5422,7 @@
         <v>0.54</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="BC2" t="n">
         <v>0.53</v>
@@ -5725,40 +5440,40 @@
         <v>0.53</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="BT2" t="n">
         <v>0.49</v>
@@ -5767,16 +5482,16 @@
         <v>0.49</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="BZ2" t="n">
         <v>0.48</v>
@@ -5788,73 +5503,73 @@
         <v>0.48</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.47</v>
+        <v>0.4500000000000001</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.46</v>
+        <v>0.4400000000000001</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.4500000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="CZ2" t="n">
         <v>0.44</v>
@@ -5866,94 +5581,94 @@
         <v>0.44</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="EG2" t="n">
         <v>0.37</v>
@@ -5962,94 +5677,94 @@
         <v>0.37</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="FM2" t="n">
         <v>0.33</v>
@@ -6073,19 +5788,19 @@
         <v>0.33</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.33</v>
+        <v>0.3200000000000001</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="FY2" t="n">
         <v>0.32</v>
@@ -6124,649 +5839,649 @@
         <v>0.32</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="HN2" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="HZ2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="II2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="IJ2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="JF2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="JG2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="JO2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="JQ2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="JS2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JZ2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="KA2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="KB2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="KC2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="KE2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="KG2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="KI2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="KK2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="KM2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="KN2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="KO2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="KU2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="KV2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="KX2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="KZ2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="LL2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="LP2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LR2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LT2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LU2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LV2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="LX2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MB2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MC2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="ME2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MG2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="MS2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="MU2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="MY2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="MZ2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="NA2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="NC2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="NE2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NG2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NH2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="NI2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="NJ2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="NK2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="NP2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="NS2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NZ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OB2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OC2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OL2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="ON2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OO2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OP2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="OR2" t="n">
         <v>0.16</v>
@@ -6805,139 +6520,139 @@
         <v>0.16</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="PG2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="PH2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="PI2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="PJ2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="PO2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="PR2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="PS2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="PT2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="PU2" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="PV2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="PW2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="PY2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QA2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QC2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QD2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QE2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QG2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QJ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QK2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QL2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QN2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QP2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QQ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QS2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QU2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="QW2" t="n">
         <v>0.14</v>
@@ -6997,25 +6712,25 @@
         <v>0.14</v>
       </c>
       <c r="RP2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RQ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RR2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RS2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RT2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RU2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RV2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RW2" t="n">
         <v>0.13</v>
@@ -7183,178 +6898,178 @@
         <v>0.13</v>
       </c>
       <c r="TZ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="UA2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="UB2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="UC2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="UD2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="UE2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="UF2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="UG2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="UH2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="UI2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="UJ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="UK2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="UL2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="UM2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="UN2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="UO2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="UP2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="UQ2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="UR2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="US2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="UT2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="UU2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="UV2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="UW2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="UX2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="UY2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="UZ2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="VA2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="VB2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="VC2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="VD2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="VE2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="VF2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="VG2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="VH2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="VI2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="VJ2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="VK2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="VL2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="VM2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="VN2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="VO2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="VP2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VQ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VR2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VS2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VT2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VU2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VV2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VW2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VX2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VY2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="VZ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="WA2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="WB2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="WC2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="WD2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="WE2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="WF2" t="n">
         <v>0.11</v>
@@ -8128,73 +7843,73 @@
         <v>0.1</v>
       </c>
       <c r="AGC2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGD2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGE2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGF2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGG2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGH2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGI2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGJ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGK2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGL2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGM2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGN2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGO2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGP2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGQ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGR2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGS2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGT2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGU2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGV2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGW2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGX2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGY2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AGZ2" t="n">
         <v>0.09</v>
@@ -8275,345 +7990,174 @@
         <v>0.09</v>
       </c>
       <c r="AHZ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIA2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIB2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIC2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AID2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIE2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIF2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIG2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIH2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AII2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIJ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIK2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIL2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIM2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIN2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIO2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIP2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIQ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIR2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIS2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIT2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIU2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIV2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIW2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIX2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIY2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIZ2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJA2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJB2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJC2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJD2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJE2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJF2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJG2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJH2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJI2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJJ2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJK2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJL2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJM2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJN2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJO2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJP2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJQ2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJR2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJS2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJT2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJU2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJV2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJW2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJX2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJY2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJZ2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AKA2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AKB2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AKC2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AKD2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKE2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKF2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKG2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKH2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKI2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKJ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKK2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKL2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKM2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKN2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKO2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKP2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKQ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKR2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKS2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKT2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKU2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKV2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKW2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKX2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKY2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKZ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALA2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALB2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALC2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALD2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALE2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALF2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALG2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALH2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALI2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALJ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALK2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALL2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALM2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALN2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALO2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALP2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALQ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALR2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALS2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALT2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALU2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALV2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALW2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALX2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALY2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALZ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AMA2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AMB2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AMC2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AMD2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AME2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AMF2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AMG2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AMH2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AMI2" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
